--- a/Biblioteca Pessoal.xlsx
+++ b/Biblioteca Pessoal.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23802"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{316A4571-8C1B-482C-857E-D258F3C0C1A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6C8BAF4-BE8B-463F-BCE4-E34B3C257F99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2785,7 +2785,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2940,36 +2940,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3174,6 +3144,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -17456,8 +17432,8 @@
   </sheetPr>
   <dimension ref="A1:AE120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:L7"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="V101" sqref="V101:AB120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17525,7 +17501,7 @@
       <c r="T2" s="18"/>
       <c r="U2" s="18"/>
       <c r="V2" s="6"/>
-      <c r="W2" s="89"/>
+      <c r="W2" s="79"/>
       <c r="X2" s="18"/>
       <c r="Y2" s="18"/>
       <c r="Z2" s="18"/>
@@ -17555,183 +17531,183 @@
       <c r="T3" s="37"/>
       <c r="U3" s="38"/>
       <c r="V3" s="6"/>
-      <c r="W3" s="89"/>
+      <c r="W3" s="79"/>
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
       <c r="AA3" s="6"/>
     </row>
     <row r="4" spans="1:31" ht="17.25">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="84" t="s">
         <v>708</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="126" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="116" t="s">
         <v>709</v>
       </c>
-      <c r="P4" s="127"/>
-      <c r="Q4" s="81">
+      <c r="P4" s="117"/>
+      <c r="Q4" s="71">
         <f ca="1">SUM(OFFSET('Tabelas Dinâmicas'!B4,0,0,COUNTA('Tabelas Dinâmicas'!$B$4:$B$5000),1))</f>
         <v>156</v>
       </c>
-      <c r="R4" s="82"/>
-      <c r="S4" s="82"/>
-      <c r="T4" s="82"/>
-      <c r="U4" s="83"/>
-      <c r="V4" s="102"/>
-      <c r="W4" s="138"/>
-      <c r="X4" s="99"/>
-      <c r="Y4" s="103"/>
-      <c r="Z4" s="103"/>
-      <c r="AA4" s="103"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="128"/>
+      <c r="X4" s="89"/>
+      <c r="Y4" s="93"/>
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="93"/>
     </row>
     <row r="5" spans="1:31" ht="17.25">
-      <c r="A5" s="104"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="101"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="128" t="s">
+      <c r="A5" s="94"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="118" t="s">
         <v>710</v>
       </c>
-      <c r="P5" s="129"/>
-      <c r="Q5" s="84">
+      <c r="P5" s="119"/>
+      <c r="Q5" s="74">
         <f ca="1">COUNTA(OFFSET('Tabelas Dinâmicas'!D4,0,0,COUNTA('Tabelas Dinâmicas'!$D$4:$D$5000),1))</f>
         <v>129</v>
       </c>
-      <c r="R5" s="85"/>
-      <c r="S5" s="85"/>
-      <c r="T5" s="85"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="102"/>
-      <c r="W5" s="138"/>
-      <c r="X5" s="99"/>
-      <c r="Y5" s="103"/>
-      <c r="Z5" s="103"/>
-      <c r="AA5" s="103"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="75"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="92"/>
+      <c r="W5" s="128"/>
+      <c r="X5" s="89"/>
+      <c r="Y5" s="93"/>
+      <c r="Z5" s="93"/>
+      <c r="AA5" s="93"/>
     </row>
     <row r="6" spans="1:31" ht="17.25">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="109" t="str">
+      <c r="B6" s="99" t="str">
         <f>VLOOKUP($B$4,'Base de Dados'!A:M,2,FALSE)</f>
         <v>Autobiografia</v>
       </c>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="91" t="s">
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="81" t="s">
         <v>711</v>
       </c>
-      <c r="K6" s="92"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="101"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="130" t="s">
+      <c r="K6" s="82"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="120" t="s">
         <v>712</v>
       </c>
-      <c r="P6" s="131"/>
-      <c r="Q6" s="84">
+      <c r="P6" s="121"/>
+      <c r="Q6" s="74">
         <f ca="1">COUNTA(OFFSET('Tabelas Dinâmicas'!G4,0,0,COUNTA('Tabelas Dinâmicas'!$G$4:$G$5000),1))</f>
         <v>89</v>
       </c>
-      <c r="R6" s="85"/>
-      <c r="S6" s="85"/>
-      <c r="T6" s="85"/>
-      <c r="U6" s="86"/>
-      <c r="V6" s="102"/>
-      <c r="W6" s="138"/>
-      <c r="X6" s="99"/>
-      <c r="Y6" s="103"/>
-      <c r="Z6" s="103"/>
-      <c r="AA6" s="103"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="92"/>
+      <c r="W6" s="128"/>
+      <c r="X6" s="89"/>
+      <c r="Y6" s="93"/>
+      <c r="Z6" s="93"/>
+      <c r="AA6" s="93"/>
     </row>
     <row r="7" spans="1:31" ht="17.25">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="112" t="str">
+      <c r="B7" s="102" t="str">
         <f>VLOOKUP($B$4,'Base de Dados'!A:M,3,FALSE)</f>
         <v>Santo Agostinho</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="140" t="s">
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="130" t="s">
         <v>713</v>
       </c>
-      <c r="K7" s="141"/>
-      <c r="L7" s="142"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="100"/>
-      <c r="O7" s="132"/>
-      <c r="P7" s="133"/>
-      <c r="Q7" s="90"/>
-      <c r="R7" s="90"/>
-      <c r="S7" s="90"/>
-      <c r="T7" s="90"/>
-      <c r="U7" s="90"/>
-      <c r="V7" s="102"/>
-      <c r="W7" s="138"/>
-      <c r="X7" s="99"/>
-      <c r="Y7" s="103"/>
-      <c r="Z7" s="103"/>
-      <c r="AA7" s="103"/>
+      <c r="K7" s="131"/>
+      <c r="L7" s="132"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="122"/>
+      <c r="P7" s="123"/>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="80"/>
+      <c r="S7" s="80"/>
+      <c r="T7" s="80"/>
+      <c r="U7" s="80"/>
+      <c r="V7" s="92"/>
+      <c r="W7" s="128"/>
+      <c r="X7" s="89"/>
+      <c r="Y7" s="93"/>
+      <c r="Z7" s="93"/>
+      <c r="AA7" s="93"/>
     </row>
     <row r="8" spans="1:31" ht="18.75">
-      <c r="A8" s="108" t="s">
+      <c r="A8" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="112" t="str">
+      <c r="B8" s="102" t="str">
         <f>VLOOKUP($B$4,'Base de Dados'!A:M,4,FALSE)</f>
         <v>1a</v>
       </c>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="146" t="s">
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="136" t="s">
         <v>714</v>
       </c>
-      <c r="K8" s="147"/>
-      <c r="L8" s="148"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="100"/>
+      <c r="K8" s="137"/>
+      <c r="L8" s="138"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="90"/>
       <c r="O8" s="36" t="s">
         <v>715</v>
       </c>
@@ -17741,421 +17717,421 @@
       <c r="S8" s="37"/>
       <c r="T8" s="37"/>
       <c r="U8" s="38"/>
-      <c r="V8" s="88" t="s">
+      <c r="V8" s="78" t="s">
         <v>716</v>
       </c>
-      <c r="W8" s="138"/>
-      <c r="X8" s="99"/>
-      <c r="Y8" s="103"/>
-      <c r="Z8" s="103"/>
-      <c r="AA8" s="103"/>
+      <c r="W8" s="128"/>
+      <c r="X8" s="89"/>
+      <c r="Y8" s="93"/>
+      <c r="Z8" s="93"/>
+      <c r="AA8" s="93"/>
     </row>
     <row r="9" spans="1:31" ht="17.25">
-      <c r="A9" s="108" t="s">
+      <c r="A9" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="112" t="str">
+      <c r="B9" s="102" t="str">
         <f>VLOOKUP($B$4,'Base de Dados'!A:M,5,FALSE)</f>
         <v>n / a</v>
       </c>
-      <c r="C9" s="113"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="146" t="s">
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="136" t="s">
         <v>717</v>
       </c>
-      <c r="K9" s="147"/>
-      <c r="L9" s="148"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="100"/>
-      <c r="O9" s="134" t="s">
+      <c r="K9" s="137"/>
+      <c r="L9" s="138"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="124" t="s">
         <v>718</v>
       </c>
-      <c r="P9" s="135"/>
-      <c r="Q9" s="81" t="str">
+      <c r="P9" s="125"/>
+      <c r="Q9" s="71" t="str">
         <f>'Tabelas Dinâmicas'!A4</f>
         <v>Romance</v>
       </c>
-      <c r="R9" s="82"/>
-      <c r="S9" s="82"/>
-      <c r="T9" s="82"/>
-      <c r="U9" s="82"/>
-      <c r="V9" s="115">
+      <c r="R9" s="72"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="72"/>
+      <c r="V9" s="105">
         <f>'Tabelas Dinâmicas'!B4</f>
         <v>28</v>
       </c>
-      <c r="W9" s="138"/>
-      <c r="X9" s="99"/>
-      <c r="Y9" s="103"/>
-      <c r="Z9" s="103"/>
-      <c r="AA9" s="103"/>
+      <c r="W9" s="128"/>
+      <c r="X9" s="89"/>
+      <c r="Y9" s="93"/>
+      <c r="Z9" s="93"/>
+      <c r="AA9" s="93"/>
     </row>
     <row r="10" spans="1:31" ht="17.25">
-      <c r="A10" s="108" t="s">
+      <c r="A10" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="112" t="str">
+      <c r="B10" s="102" t="str">
         <f>VLOOKUP($B$4,'Base de Dados'!A:M,6,FALSE)</f>
         <v>Paulus</v>
       </c>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="146" t="s">
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="136" t="s">
         <v>719</v>
       </c>
-      <c r="K10" s="147"/>
-      <c r="L10" s="148"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="134" t="s">
+      <c r="K10" s="137"/>
+      <c r="L10" s="138"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="124" t="s">
         <v>720</v>
       </c>
-      <c r="P10" s="135"/>
-      <c r="Q10" s="81" t="str">
+      <c r="P10" s="125"/>
+      <c r="Q10" s="71" t="str">
         <f>'Tabelas Dinâmicas'!D4</f>
         <v>Selma El-Kathib e Luiz Cesar Pinto Ribeiro (coord.)</v>
       </c>
-      <c r="R10" s="82"/>
-      <c r="S10" s="82"/>
-      <c r="T10" s="82"/>
-      <c r="U10" s="82"/>
-      <c r="V10" s="115">
+      <c r="R10" s="72"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="105">
         <f>'Tabelas Dinâmicas'!E4</f>
         <v>4</v>
       </c>
-      <c r="W10" s="138"/>
-      <c r="X10" s="99"/>
-      <c r="Y10" s="103"/>
-      <c r="Z10" s="103"/>
-      <c r="AA10" s="103"/>
+      <c r="W10" s="128"/>
+      <c r="X10" s="89"/>
+      <c r="Y10" s="93"/>
+      <c r="Z10" s="93"/>
+      <c r="AA10" s="93"/>
     </row>
     <row r="11" spans="1:31" ht="17.25">
-      <c r="A11" s="108" t="s">
+      <c r="A11" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="112">
+      <c r="B11" s="102">
         <f>VLOOKUP($B$4,'Base de Dados'!A:M,7,FALSE)</f>
         <v>1984</v>
       </c>
-      <c r="C11" s="113"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="146" t="s">
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="136" t="s">
         <v>721</v>
       </c>
-      <c r="K11" s="147"/>
-      <c r="L11" s="148"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="100"/>
-      <c r="O11" s="134" t="s">
+      <c r="K11" s="137"/>
+      <c r="L11" s="138"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="124" t="s">
         <v>722</v>
       </c>
-      <c r="P11" s="135"/>
-      <c r="Q11" s="81" t="str">
+      <c r="P11" s="125"/>
+      <c r="Q11" s="71" t="str">
         <f>'Tabelas Dinâmicas'!J4</f>
         <v>Português</v>
       </c>
-      <c r="R11" s="82"/>
-      <c r="S11" s="82"/>
-      <c r="T11" s="82"/>
-      <c r="U11" s="82"/>
-      <c r="V11" s="115">
+      <c r="R11" s="72"/>
+      <c r="S11" s="72"/>
+      <c r="T11" s="72"/>
+      <c r="U11" s="72"/>
+      <c r="V11" s="105">
         <f>'Tabelas Dinâmicas'!K4</f>
         <v>132</v>
       </c>
-      <c r="W11" s="138"/>
-      <c r="X11" s="99"/>
-      <c r="Y11" s="103"/>
-      <c r="Z11" s="103"/>
-      <c r="AA11" s="103"/>
+      <c r="W11" s="128"/>
+      <c r="X11" s="89"/>
+      <c r="Y11" s="93"/>
+      <c r="Z11" s="93"/>
+      <c r="AA11" s="93"/>
     </row>
     <row r="12" spans="1:31" ht="17.25">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="112" t="str">
+      <c r="B12" s="102" t="str">
         <f>VLOOKUP($B$4,'Base de Dados'!A:M,8,FALSE)</f>
         <v>Patrística</v>
       </c>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="143" t="s">
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="133" t="s">
         <v>723</v>
       </c>
-      <c r="K12" s="144"/>
-      <c r="L12" s="145"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="100"/>
-      <c r="O12" s="134" t="s">
+      <c r="K12" s="134"/>
+      <c r="L12" s="135"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="90"/>
+      <c r="O12" s="124" t="s">
         <v>724</v>
       </c>
-      <c r="P12" s="135"/>
-      <c r="Q12" s="81" t="str">
+      <c r="P12" s="125"/>
+      <c r="Q12" s="71" t="str">
         <f>'Tabelas Dinâmicas'!G4</f>
         <v>L&amp;PM</v>
       </c>
-      <c r="R12" s="82"/>
-      <c r="S12" s="82"/>
-      <c r="T12" s="82"/>
-      <c r="U12" s="82"/>
-      <c r="V12" s="115">
+      <c r="R12" s="72"/>
+      <c r="S12" s="72"/>
+      <c r="T12" s="72"/>
+      <c r="U12" s="72"/>
+      <c r="V12" s="105">
         <f>'Tabelas Dinâmicas'!H4</f>
         <v>12</v>
       </c>
-      <c r="W12" s="138"/>
-      <c r="X12" s="99"/>
-      <c r="Y12" s="103"/>
-      <c r="Z12" s="103"/>
-      <c r="AA12" s="103"/>
+      <c r="W12" s="128"/>
+      <c r="X12" s="89"/>
+      <c r="Y12" s="93"/>
+      <c r="Z12" s="93"/>
+      <c r="AA12" s="93"/>
     </row>
     <row r="13" spans="1:31" ht="15.75">
-      <c r="A13" s="108" t="s">
+      <c r="A13" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="116" t="str">
+      <c r="B13" s="106" t="str">
         <f>VLOOKUP($B$4,'Base de Dados'!A:M,9,FALSE)</f>
         <v>Português</v>
       </c>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="100"/>
-      <c r="O13" s="126" t="s">
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="90"/>
+      <c r="O13" s="116" t="s">
         <v>725</v>
       </c>
-      <c r="P13" s="127"/>
-      <c r="Q13" s="81">
+      <c r="P13" s="117"/>
+      <c r="Q13" s="71">
         <f>'Tabelas Dinâmicas'!P4</f>
         <v>2012</v>
       </c>
-      <c r="R13" s="82"/>
-      <c r="S13" s="82"/>
-      <c r="T13" s="82"/>
-      <c r="U13" s="82"/>
-      <c r="V13" s="115">
+      <c r="R13" s="72"/>
+      <c r="S13" s="72"/>
+      <c r="T13" s="72"/>
+      <c r="U13" s="72"/>
+      <c r="V13" s="105">
         <f>'Tabelas Dinâmicas'!Q4</f>
         <v>14</v>
       </c>
-      <c r="W13" s="138"/>
-      <c r="X13" s="99"/>
-      <c r="Y13" s="99"/>
-      <c r="Z13" s="99"/>
-      <c r="AA13" s="99"/>
+      <c r="W13" s="128"/>
+      <c r="X13" s="89"/>
+      <c r="Y13" s="89"/>
+      <c r="Z13" s="89"/>
+      <c r="AA13" s="89"/>
     </row>
     <row r="14" spans="1:31" ht="15.75">
-      <c r="A14" s="108" t="s">
+      <c r="A14" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="112">
+      <c r="B14" s="102">
         <f>VLOOKUP($B$4,'Base de Dados'!A:M,10,FALSE)</f>
         <v>446</v>
       </c>
-      <c r="C14" s="113"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="100"/>
-      <c r="O14" s="136" t="s">
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="126" t="s">
         <v>726</v>
       </c>
-      <c r="P14" s="137"/>
-      <c r="Q14" s="84" t="str">
+      <c r="P14" s="127"/>
+      <c r="Q14" s="74" t="str">
         <f>'Tabelas Dinâmicas'!M4</f>
         <v>Brasil</v>
       </c>
-      <c r="R14" s="85"/>
-      <c r="S14" s="85"/>
-      <c r="T14" s="85"/>
-      <c r="U14" s="85"/>
-      <c r="V14" s="115">
+      <c r="R14" s="75"/>
+      <c r="S14" s="75"/>
+      <c r="T14" s="75"/>
+      <c r="U14" s="75"/>
+      <c r="V14" s="105">
         <f>'Tabelas Dinâmicas'!N4</f>
         <v>59</v>
       </c>
-      <c r="W14" s="138"/>
-      <c r="X14" s="99"/>
-      <c r="Y14" s="99"/>
-      <c r="Z14" s="99"/>
-      <c r="AA14" s="99"/>
+      <c r="W14" s="128"/>
+      <c r="X14" s="89"/>
+      <c r="Y14" s="89"/>
+      <c r="Z14" s="89"/>
+      <c r="AA14" s="89"/>
     </row>
     <row r="15" spans="1:31" ht="15.75">
-      <c r="A15" s="108" t="s">
+      <c r="A15" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="112" t="str">
+      <c r="B15" s="102" t="str">
         <f>VLOOKUP($B$4,'Base de Dados'!A:M,11,FALSE)</f>
         <v>922.22</v>
       </c>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="100"/>
-      <c r="O15" s="128" t="s">
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="118" t="s">
         <v>727</v>
       </c>
-      <c r="P15" s="129"/>
-      <c r="Q15" s="84" t="str">
+      <c r="P15" s="119"/>
+      <c r="Q15" s="74" t="str">
         <f>IF('Tabelas Dinâmicas'!S4= "n / a", 'Tabelas Dinâmicas'!S5, 'Tabelas Dinâmicas'!S4)</f>
         <v>L&amp;PM Pocket</v>
       </c>
-      <c r="R15" s="85"/>
-      <c r="S15" s="85"/>
-      <c r="T15" s="85"/>
-      <c r="U15" s="86"/>
-      <c r="V15" s="119">
+      <c r="R15" s="75"/>
+      <c r="S15" s="75"/>
+      <c r="T15" s="75"/>
+      <c r="U15" s="76"/>
+      <c r="V15" s="109">
         <f>IF('Tabelas Dinâmicas'!S4= "n / a", 'Tabelas Dinâmicas'!T5, 'Tabelas Dinâmicas'!T4)</f>
         <v>12</v>
       </c>
-      <c r="W15" s="138"/>
-      <c r="X15" s="99"/>
-      <c r="Y15" s="99"/>
-      <c r="Z15" s="99"/>
-      <c r="AA15" s="99"/>
+      <c r="W15" s="128"/>
+      <c r="X15" s="89"/>
+      <c r="Y15" s="89"/>
+      <c r="Z15" s="89"/>
+      <c r="AA15" s="89"/>
     </row>
     <row r="16" spans="1:31" ht="15.75">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="112" t="str">
+      <c r="B16" s="102" t="str">
         <f>VLOOKUP($B$4,'Base de Dados'!A:M,12,FALSE)</f>
         <v>A221c</v>
       </c>
-      <c r="C16" s="113"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="100"/>
-      <c r="O16" s="120"/>
-      <c r="P16" s="98"/>
-      <c r="Q16" s="98"/>
-      <c r="R16" s="98"/>
-      <c r="S16" s="98"/>
-      <c r="T16" s="98"/>
-      <c r="U16" s="98"/>
-      <c r="V16" s="98"/>
-      <c r="W16" s="138"/>
-      <c r="X16" s="99"/>
-      <c r="Y16" s="99"/>
-      <c r="Z16" s="99"/>
-      <c r="AA16" s="99"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="90"/>
+      <c r="O16" s="110"/>
+      <c r="P16" s="88"/>
+      <c r="Q16" s="88"/>
+      <c r="R16" s="88"/>
+      <c r="S16" s="88"/>
+      <c r="T16" s="88"/>
+      <c r="U16" s="88"/>
+      <c r="V16" s="88"/>
+      <c r="W16" s="128"/>
+      <c r="X16" s="89"/>
+      <c r="Y16" s="89"/>
+      <c r="Z16" s="89"/>
+      <c r="AA16" s="89"/>
     </row>
     <row r="17" spans="1:28" ht="15.75">
-      <c r="A17" s="121" t="s">
+      <c r="A17" s="111" t="s">
         <v>728</v>
       </c>
-      <c r="B17" s="112" t="str">
+      <c r="B17" s="102" t="str">
         <f>VLOOKUP($B$4,'Base de Dados'!A:M,13,FALSE)</f>
         <v>Grécia</v>
       </c>
-      <c r="C17" s="113"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="100"/>
-      <c r="O17" s="120"/>
-      <c r="P17" s="98"/>
-      <c r="Q17" s="98"/>
-      <c r="R17" s="98"/>
-      <c r="S17" s="98"/>
-      <c r="T17" s="98"/>
-      <c r="U17" s="98"/>
-      <c r="V17" s="98"/>
-      <c r="W17" s="138"/>
-      <c r="X17" s="99"/>
-      <c r="Y17" s="99"/>
-      <c r="Z17" s="99"/>
-      <c r="AA17" s="99"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="91"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="110"/>
+      <c r="P17" s="88"/>
+      <c r="Q17" s="88"/>
+      <c r="R17" s="88"/>
+      <c r="S17" s="88"/>
+      <c r="T17" s="88"/>
+      <c r="U17" s="88"/>
+      <c r="V17" s="88"/>
+      <c r="W17" s="128"/>
+      <c r="X17" s="89"/>
+      <c r="Y17" s="89"/>
+      <c r="Z17" s="89"/>
+      <c r="AA17" s="89"/>
     </row>
     <row r="18" spans="1:28" ht="15.75">
-      <c r="A18" s="121" t="s">
+      <c r="A18" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="112">
+      <c r="B18" s="102">
         <f>VLOOKUP($B$4,'Base de Dados'!A:N,14,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="C18" s="113"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="114"/>
-      <c r="H18" s="122"/>
-      <c r="I18" s="122"/>
-      <c r="J18" s="122"/>
-      <c r="K18" s="122"/>
-      <c r="L18" s="122"/>
-      <c r="M18" s="123"/>
-      <c r="N18" s="100"/>
-      <c r="O18" s="124"/>
-      <c r="P18" s="125"/>
-      <c r="Q18" s="125"/>
-      <c r="R18" s="125"/>
-      <c r="S18" s="125"/>
-      <c r="T18" s="125"/>
-      <c r="U18" s="125"/>
-      <c r="V18" s="125"/>
-      <c r="W18" s="139"/>
-      <c r="X18" s="99"/>
-      <c r="Y18" s="99"/>
-      <c r="Z18" s="99"/>
-      <c r="AA18" s="99"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="112"/>
+      <c r="I18" s="112"/>
+      <c r="J18" s="112"/>
+      <c r="K18" s="112"/>
+      <c r="L18" s="112"/>
+      <c r="M18" s="113"/>
+      <c r="N18" s="90"/>
+      <c r="O18" s="114"/>
+      <c r="P18" s="115"/>
+      <c r="Q18" s="115"/>
+      <c r="R18" s="115"/>
+      <c r="S18" s="115"/>
+      <c r="T18" s="115"/>
+      <c r="U18" s="115"/>
+      <c r="V18" s="115"/>
+      <c r="W18" s="129"/>
+      <c r="X18" s="89"/>
+      <c r="Y18" s="89"/>
+      <c r="Z18" s="89"/>
+      <c r="AA18" s="89"/>
     </row>
     <row r="19" spans="1:28">
-      <c r="O19" s="87"/>
+      <c r="O19" s="77"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
@@ -18170,68 +18146,68 @@
       <c r="AA19" s="18"/>
     </row>
     <row r="20" spans="1:28" ht="22.5">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="67" t="s">
         <v>729</v>
       </c>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="78"/>
-      <c r="O20" s="78"/>
-      <c r="P20" s="78"/>
-      <c r="Q20" s="78"/>
-      <c r="R20" s="78"/>
-      <c r="S20" s="78"/>
-      <c r="T20" s="78"/>
-      <c r="U20" s="78"/>
-      <c r="V20" s="78"/>
-      <c r="W20" s="78"/>
-      <c r="X20" s="78"/>
-      <c r="Y20" s="78"/>
-      <c r="Z20" s="78"/>
-      <c r="AA20" s="78"/>
-      <c r="AB20" s="78"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="68"/>
+      <c r="S20" s="68"/>
+      <c r="T20" s="68"/>
+      <c r="U20" s="68"/>
+      <c r="V20" s="68"/>
+      <c r="W20" s="68"/>
+      <c r="X20" s="68"/>
+      <c r="Y20" s="68"/>
+      <c r="Z20" s="68"/>
+      <c r="AA20" s="68"/>
+      <c r="AB20" s="68"/>
     </row>
     <row r="22" spans="1:28" ht="18.75">
-      <c r="A22" s="73" t="s">
+      <c r="A22" s="63" t="s">
         <v>730</v>
       </c>
-      <c r="B22" s="74"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="74"/>
-      <c r="N22" s="74"/>
-      <c r="O22" s="74"/>
-      <c r="P22" s="74"/>
-      <c r="Q22" s="74"/>
-      <c r="R22" s="74"/>
-      <c r="S22" s="74"/>
-      <c r="T22" s="74"/>
-      <c r="U22" s="74"/>
-      <c r="V22" s="74"/>
-      <c r="W22" s="74"/>
-      <c r="X22" s="74"/>
-      <c r="Y22" s="74"/>
-      <c r="Z22" s="74"/>
-      <c r="AA22" s="74"/>
-      <c r="AB22" s="74"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="64"/>
+      <c r="S22" s="64"/>
+      <c r="T22" s="64"/>
+      <c r="U22" s="64"/>
+      <c r="V22" s="64"/>
+      <c r="W22" s="64"/>
+      <c r="X22" s="64"/>
+      <c r="Y22" s="64"/>
+      <c r="Z22" s="64"/>
+      <c r="AA22" s="64"/>
+      <c r="AB22" s="64"/>
     </row>
     <row r="23" spans="1:28" ht="21">
       <c r="A23" s="27" t="s">
@@ -18271,36 +18247,36 @@
       <c r="O24" s="12"/>
     </row>
     <row r="25" spans="1:28">
-      <c r="A25" s="71" t="s">
+      <c r="A25" s="61" t="s">
         <v>733</v>
       </c>
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="72"/>
-      <c r="O25" s="72"/>
-      <c r="P25" s="72"/>
-      <c r="Q25" s="72"/>
-      <c r="R25" s="72"/>
-      <c r="S25" s="72"/>
-      <c r="T25" s="72"/>
-      <c r="U25" s="72"/>
-      <c r="V25" s="72"/>
-      <c r="W25" s="72"/>
-      <c r="X25" s="72"/>
-      <c r="Y25" s="72"/>
-      <c r="Z25" s="72"/>
-      <c r="AA25" s="72"/>
-      <c r="AB25" s="72"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="62"/>
+      <c r="Q25" s="62"/>
+      <c r="R25" s="62"/>
+      <c r="S25" s="62"/>
+      <c r="T25" s="62"/>
+      <c r="U25" s="62"/>
+      <c r="V25" s="62"/>
+      <c r="W25" s="62"/>
+      <c r="X25" s="62"/>
+      <c r="Y25" s="62"/>
+      <c r="Z25" s="62"/>
+      <c r="AA25" s="62"/>
+      <c r="AB25" s="62"/>
     </row>
     <row r="26" spans="1:28">
       <c r="A26" s="39" t="str" cm="1">
@@ -18314,8 +18290,8 @@
       <c r="F26" s="39"/>
       <c r="G26" s="40"/>
       <c r="H26" s="52" t="str" cm="1">
-        <f t="array" ref="H26">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A20)),1),"-")</f>
-        <v>Orgulho e Preconceito</v>
+        <f t="array" ref="H26">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A21)),1),"-")</f>
+        <v>O Processo</v>
       </c>
       <c r="I26" s="39"/>
       <c r="J26" s="39"/>
@@ -18324,7 +18300,7 @@
       <c r="M26" s="39"/>
       <c r="N26" s="40"/>
       <c r="O26" s="39" t="str" cm="1">
-        <f t="array" ref="O26">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A40)),1),"-")</f>
+        <f t="array" ref="O26">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A41)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="P26" s="39"/>
@@ -18334,7 +18310,7 @@
       <c r="T26" s="39"/>
       <c r="U26" s="40"/>
       <c r="V26" s="54" t="str" cm="1">
-        <f t="array" ref="V26">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A60)),1),"-")</f>
+        <f t="array" ref="V26">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A61)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="W26" s="54"/>
@@ -18356,8 +18332,8 @@
       <c r="F27" s="39"/>
       <c r="G27" s="40"/>
       <c r="H27" s="52" t="str" cm="1">
-        <f t="array" ref="H27">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A21)),1),"-")</f>
-        <v>O Processo</v>
+        <f t="array" ref="H27">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A22)),1),"-")</f>
+        <v>Quincas Borba</v>
       </c>
       <c r="I27" s="39"/>
       <c r="J27" s="39"/>
@@ -18366,7 +18342,7 @@
       <c r="M27" s="39"/>
       <c r="N27" s="40"/>
       <c r="O27" s="39" t="str" cm="1">
-        <f t="array" ref="O27">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A41)),1),"-")</f>
+        <f t="array" ref="O27">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A42)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="P27" s="39"/>
@@ -18376,7 +18352,7 @@
       <c r="T27" s="39"/>
       <c r="U27" s="40"/>
       <c r="V27" s="54" t="str" cm="1">
-        <f t="array" ref="V27">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A61)),1),"-")</f>
+        <f t="array" ref="V27">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A62)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="W27" s="54"/>
@@ -18398,8 +18374,8 @@
       <c r="F28" s="39"/>
       <c r="G28" s="40"/>
       <c r="H28" s="52" t="str" cm="1">
-        <f t="array" ref="H28">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A22)),1),"-")</f>
-        <v>Quincas Borba</v>
+        <f t="array" ref="H28">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A23)),1),"-")</f>
+        <v>Sense and Sensibility</v>
       </c>
       <c r="I28" s="39"/>
       <c r="J28" s="39"/>
@@ -18408,7 +18384,7 @@
       <c r="M28" s="39"/>
       <c r="N28" s="40"/>
       <c r="O28" s="39" t="str" cm="1">
-        <f t="array" ref="O28">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A42)),1),"-")</f>
+        <f t="array" ref="O28">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A43)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="P28" s="39"/>
@@ -18418,7 +18394,7 @@
       <c r="T28" s="39"/>
       <c r="U28" s="40"/>
       <c r="V28" s="54" t="str" cm="1">
-        <f t="array" ref="V28">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A62)),1),"-")</f>
+        <f t="array" ref="V28">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A63)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="W28" s="54"/>
@@ -18440,8 +18416,8 @@
       <c r="F29" s="39"/>
       <c r="G29" s="40"/>
       <c r="H29" s="52" t="str" cm="1">
-        <f t="array" ref="H29">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A23)),1),"-")</f>
-        <v>Sense and Sensibility</v>
+        <f t="array" ref="H29">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A24)),1),"-")</f>
+        <v>Solar</v>
       </c>
       <c r="I29" s="39"/>
       <c r="J29" s="39"/>
@@ -18450,7 +18426,7 @@
       <c r="M29" s="39"/>
       <c r="N29" s="40"/>
       <c r="O29" s="39" t="str" cm="1">
-        <f t="array" ref="O29">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A43)),1),"-")</f>
+        <f t="array" ref="O29">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A44)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="P29" s="39"/>
@@ -18460,7 +18436,7 @@
       <c r="T29" s="39"/>
       <c r="U29" s="40"/>
       <c r="V29" s="54" t="str" cm="1">
-        <f t="array" ref="V29">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A63)),1),"-")</f>
+        <f t="array" ref="V29">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A64)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="W29" s="54"/>
@@ -18482,8 +18458,8 @@
       <c r="F30" s="39"/>
       <c r="G30" s="40"/>
       <c r="H30" s="52" t="str" cm="1">
-        <f t="array" ref="H30">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A24)),1),"-")</f>
-        <v>Solar</v>
+        <f t="array" ref="H30">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A25)),1),"-")</f>
+        <v>Gabriela, Cravo e Canela</v>
       </c>
       <c r="I30" s="39"/>
       <c r="J30" s="39"/>
@@ -18492,7 +18468,7 @@
       <c r="M30" s="39"/>
       <c r="N30" s="40"/>
       <c r="O30" s="39" t="str" cm="1">
-        <f t="array" ref="O30">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A44)),1),"-")</f>
+        <f t="array" ref="O30">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A45)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="P30" s="39"/>
@@ -18502,7 +18478,7 @@
       <c r="T30" s="39"/>
       <c r="U30" s="40"/>
       <c r="V30" s="54" t="str" cm="1">
-        <f t="array" ref="V30">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A64)),1),"-")</f>
+        <f t="array" ref="V30">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A65)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="W30" s="54"/>
@@ -18524,8 +18500,8 @@
       <c r="F31" s="39"/>
       <c r="G31" s="40"/>
       <c r="H31" s="52" t="str" cm="1">
-        <f t="array" ref="H31">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A25)),1),"-")</f>
-        <v>Gabriela, Cravo e Canela</v>
+        <f t="array" ref="H31">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A26)),1),"-")</f>
+        <v>Trainspotting</v>
       </c>
       <c r="I31" s="39"/>
       <c r="J31" s="39"/>
@@ -18534,7 +18510,7 @@
       <c r="M31" s="39"/>
       <c r="N31" s="40"/>
       <c r="O31" s="39" t="str" cm="1">
-        <f t="array" ref="O31">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A45)),1),"-")</f>
+        <f t="array" ref="O31">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A46)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="P31" s="39"/>
@@ -18544,7 +18520,7 @@
       <c r="T31" s="39"/>
       <c r="U31" s="40"/>
       <c r="V31" s="54" t="str" cm="1">
-        <f t="array" ref="V31">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A65)),1),"-")</f>
+        <f t="array" ref="V31">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A66)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="W31" s="54"/>
@@ -18566,8 +18542,8 @@
       <c r="F32" s="39"/>
       <c r="G32" s="40"/>
       <c r="H32" s="52" t="str" cm="1">
-        <f t="array" ref="H32">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A26)),1),"-")</f>
-        <v>Trainspotting</v>
+        <f t="array" ref="H32">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A27)),1),"-")</f>
+        <v>Les Trois Mousquetaires</v>
       </c>
       <c r="I32" s="39"/>
       <c r="J32" s="39"/>
@@ -18576,7 +18552,7 @@
       <c r="M32" s="39"/>
       <c r="N32" s="40"/>
       <c r="O32" s="39" t="str" cm="1">
-        <f t="array" ref="O32">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A46)),1),"-")</f>
+        <f t="array" ref="O32">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A47)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="P32" s="39"/>
@@ -18586,7 +18562,7 @@
       <c r="T32" s="39"/>
       <c r="U32" s="40"/>
       <c r="V32" s="54" t="str" cm="1">
-        <f t="array" ref="V32">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A66)),1),"-")</f>
+        <f t="array" ref="V32">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A67)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="W32" s="54"/>
@@ -18608,8 +18584,8 @@
       <c r="F33" s="39"/>
       <c r="G33" s="40"/>
       <c r="H33" s="52" t="str" cm="1">
-        <f t="array" ref="H33">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A27)),1),"-")</f>
-        <v>Les Trois Mousquetaires</v>
+        <f t="array" ref="H33">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A28)),1),"-")</f>
+        <v>Filhos Brilhantes, Alunos Fascinantes</v>
       </c>
       <c r="I33" s="39"/>
       <c r="J33" s="39"/>
@@ -18618,7 +18594,7 @@
       <c r="M33" s="39"/>
       <c r="N33" s="40"/>
       <c r="O33" s="39" t="str" cm="1">
-        <f t="array" ref="O33">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A47)),1),"-")</f>
+        <f t="array" ref="O33">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A48)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="P33" s="39"/>
@@ -18628,7 +18604,7 @@
       <c r="T33" s="39"/>
       <c r="U33" s="40"/>
       <c r="V33" s="54" t="str" cm="1">
-        <f t="array" ref="V33">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A67)),1),"-")</f>
+        <f t="array" ref="V33">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A68)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="W33" s="54"/>
@@ -18650,8 +18626,8 @@
       <c r="F34" s="39"/>
       <c r="G34" s="40"/>
       <c r="H34" s="52" t="str" cm="1">
-        <f t="array" ref="H34">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A28)),1),"-")</f>
-        <v>Filhos Brilhantes, Alunos Fascinantes</v>
+        <f t="array" ref="H34">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A29)),1),"-")</f>
+        <v>-</v>
       </c>
       <c r="I34" s="39"/>
       <c r="J34" s="39"/>
@@ -18660,7 +18636,7 @@
       <c r="M34" s="39"/>
       <c r="N34" s="40"/>
       <c r="O34" s="39" t="str" cm="1">
-        <f t="array" ref="O34">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A48)),1),"-")</f>
+        <f t="array" ref="O34">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A49)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="P34" s="39"/>
@@ -18670,7 +18646,7 @@
       <c r="T34" s="39"/>
       <c r="U34" s="40"/>
       <c r="V34" s="54" t="str" cm="1">
-        <f t="array" ref="V34">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A68)),1),"-")</f>
+        <f t="array" ref="V34">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A69)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="W34" s="54"/>
@@ -18692,7 +18668,7 @@
       <c r="F35" s="39"/>
       <c r="G35" s="40"/>
       <c r="H35" s="52" t="str" cm="1">
-        <f t="array" ref="H35">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A29)),1),"-")</f>
+        <f t="array" ref="H35">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A30)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="I35" s="39"/>
@@ -18702,7 +18678,7 @@
       <c r="M35" s="39"/>
       <c r="N35" s="40"/>
       <c r="O35" s="39" t="str" cm="1">
-        <f t="array" ref="O35">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A49)),1),"-")</f>
+        <f t="array" ref="O35">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A50)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="P35" s="39"/>
@@ -18712,7 +18688,7 @@
       <c r="T35" s="39"/>
       <c r="U35" s="40"/>
       <c r="V35" s="54" t="str" cm="1">
-        <f t="array" ref="V35">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A69)),1),"-")</f>
+        <f t="array" ref="V35">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A70)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="W35" s="54"/>
@@ -18734,7 +18710,7 @@
       <c r="F36" s="39"/>
       <c r="G36" s="40"/>
       <c r="H36" s="52" t="str" cm="1">
-        <f t="array" ref="H36">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A30)),1),"-")</f>
+        <f t="array" ref="H36">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A31)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="I36" s="39"/>
@@ -18744,7 +18720,7 @@
       <c r="M36" s="39"/>
       <c r="N36" s="40"/>
       <c r="O36" s="39" t="str" cm="1">
-        <f t="array" ref="O36">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A50)),1),"-")</f>
+        <f t="array" ref="O36">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A51)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="P36" s="39"/>
@@ -18754,7 +18730,7 @@
       <c r="T36" s="39"/>
       <c r="U36" s="40"/>
       <c r="V36" s="54" t="str" cm="1">
-        <f t="array" ref="V36">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A70)),1),"-")</f>
+        <f t="array" ref="V36">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A71)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="W36" s="54"/>
@@ -18776,7 +18752,7 @@
       <c r="F37" s="39"/>
       <c r="G37" s="40"/>
       <c r="H37" s="52" t="str" cm="1">
-        <f t="array" ref="H37">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A31)),1),"-")</f>
+        <f t="array" ref="H37">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A32)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="I37" s="39"/>
@@ -18786,7 +18762,7 @@
       <c r="M37" s="39"/>
       <c r="N37" s="40"/>
       <c r="O37" s="39" t="str" cm="1">
-        <f t="array" ref="O37">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A51)),1),"-")</f>
+        <f t="array" ref="O37">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A52)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="P37" s="39"/>
@@ -18796,7 +18772,7 @@
       <c r="T37" s="39"/>
       <c r="U37" s="40"/>
       <c r="V37" s="54" t="str" cm="1">
-        <f t="array" ref="V37">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A71)),1),"-")</f>
+        <f t="array" ref="V37">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A72)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="W37" s="54"/>
@@ -18818,7 +18794,7 @@
       <c r="F38" s="39"/>
       <c r="G38" s="40"/>
       <c r="H38" s="52" t="str" cm="1">
-        <f t="array" ref="H38">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A32)),1),"-")</f>
+        <f t="array" ref="H38">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A33)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="I38" s="39"/>
@@ -18828,7 +18804,7 @@
       <c r="M38" s="39"/>
       <c r="N38" s="40"/>
       <c r="O38" s="39" t="str" cm="1">
-        <f t="array" ref="O38">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A52)),1),"-")</f>
+        <f t="array" ref="O38">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A53)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="P38" s="39"/>
@@ -18838,7 +18814,7 @@
       <c r="T38" s="39"/>
       <c r="U38" s="40"/>
       <c r="V38" s="54" t="str" cm="1">
-        <f t="array" ref="V38">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A72)),1),"-")</f>
+        <f t="array" ref="V38">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A73)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="W38" s="54"/>
@@ -18860,7 +18836,7 @@
       <c r="F39" s="39"/>
       <c r="G39" s="40"/>
       <c r="H39" s="52" t="str" cm="1">
-        <f t="array" ref="H39">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A33)),1),"-")</f>
+        <f t="array" ref="H39">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A34)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="I39" s="39"/>
@@ -18870,7 +18846,7 @@
       <c r="M39" s="39"/>
       <c r="N39" s="40"/>
       <c r="O39" s="39" t="str" cm="1">
-        <f t="array" ref="O39">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A53)),1),"-")</f>
+        <f t="array" ref="O39">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A54)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="P39" s="39"/>
@@ -18880,7 +18856,7 @@
       <c r="T39" s="39"/>
       <c r="U39" s="40"/>
       <c r="V39" s="54" t="str" cm="1">
-        <f t="array" ref="V39">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A73)),1),"-")</f>
+        <f t="array" ref="V39">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A74)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="W39" s="54"/>
@@ -18902,7 +18878,7 @@
       <c r="F40" s="39"/>
       <c r="G40" s="40"/>
       <c r="H40" s="52" t="str" cm="1">
-        <f t="array" ref="H40">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A34)),1),"-")</f>
+        <f t="array" ref="H40">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A35)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="I40" s="39"/>
@@ -18912,7 +18888,7 @@
       <c r="M40" s="39"/>
       <c r="N40" s="40"/>
       <c r="O40" s="39" t="str" cm="1">
-        <f t="array" ref="O40">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A54)),1),"-")</f>
+        <f t="array" ref="O40">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A55)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="P40" s="39"/>
@@ -18922,7 +18898,7 @@
       <c r="T40" s="39"/>
       <c r="U40" s="40"/>
       <c r="V40" s="54" t="str" cm="1">
-        <f t="array" ref="V40">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A74)),1),"-")</f>
+        <f t="array" ref="V40">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A75)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="W40" s="54"/>
@@ -18944,7 +18920,7 @@
       <c r="F41" s="39"/>
       <c r="G41" s="40"/>
       <c r="H41" s="52" t="str" cm="1">
-        <f t="array" ref="H41">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A35)),1),"-")</f>
+        <f t="array" ref="H41">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A36)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="I41" s="39"/>
@@ -18954,7 +18930,7 @@
       <c r="M41" s="39"/>
       <c r="N41" s="40"/>
       <c r="O41" s="39" t="str" cm="1">
-        <f t="array" ref="O41">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A55)),1),"-")</f>
+        <f t="array" ref="O41">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A56)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="P41" s="39"/>
@@ -18964,7 +18940,7 @@
       <c r="T41" s="39"/>
       <c r="U41" s="40"/>
       <c r="V41" s="54" t="str" cm="1">
-        <f t="array" ref="V41">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A75)),1),"-")</f>
+        <f t="array" ref="V41">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A76)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="W41" s="54"/>
@@ -18986,7 +18962,7 @@
       <c r="F42" s="39"/>
       <c r="G42" s="40"/>
       <c r="H42" s="52" t="str" cm="1">
-        <f t="array" ref="H42">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A36)),1),"-")</f>
+        <f t="array" ref="H42">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A37)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="I42" s="39"/>
@@ -18996,7 +18972,7 @@
       <c r="M42" s="39"/>
       <c r="N42" s="40"/>
       <c r="O42" s="39" t="str" cm="1">
-        <f t="array" ref="O42">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A56)),1),"-")</f>
+        <f t="array" ref="O42">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A57)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="P42" s="39"/>
@@ -19006,7 +18982,7 @@
       <c r="T42" s="39"/>
       <c r="U42" s="40"/>
       <c r="V42" s="54" t="str" cm="1">
-        <f t="array" ref="V42">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A76)),1),"-")</f>
+        <f t="array" ref="V42">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A77)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="W42" s="54"/>
@@ -19028,7 +19004,7 @@
       <c r="F43" s="39"/>
       <c r="G43" s="40"/>
       <c r="H43" s="52" t="str" cm="1">
-        <f t="array" ref="H43">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A37)),1),"-")</f>
+        <f t="array" ref="H43">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A38)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="I43" s="39"/>
@@ -19038,7 +19014,7 @@
       <c r="M43" s="39"/>
       <c r="N43" s="40"/>
       <c r="O43" s="39" t="str" cm="1">
-        <f t="array" ref="O43">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A57)),1),"-")</f>
+        <f t="array" ref="O43">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A58)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="P43" s="39"/>
@@ -19048,7 +19024,7 @@
       <c r="T43" s="39"/>
       <c r="U43" s="40"/>
       <c r="V43" s="54" t="str" cm="1">
-        <f t="array" ref="V43">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A77)),1),"-")</f>
+        <f t="array" ref="V43">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A78)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="W43" s="54"/>
@@ -19070,7 +19046,7 @@
       <c r="F44" s="39"/>
       <c r="G44" s="40"/>
       <c r="H44" s="52" t="str" cm="1">
-        <f t="array" ref="H44">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A38)),1),"-")</f>
+        <f t="array" ref="H44">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A39)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="I44" s="39"/>
@@ -19080,7 +19056,7 @@
       <c r="M44" s="39"/>
       <c r="N44" s="40"/>
       <c r="O44" s="39" t="str" cm="1">
-        <f t="array" ref="O44">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A58)),1),"-")</f>
+        <f t="array" ref="O44">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A59)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="P44" s="39"/>
@@ -19090,7 +19066,7 @@
       <c r="T44" s="39"/>
       <c r="U44" s="40"/>
       <c r="V44" s="54" t="str" cm="1">
-        <f t="array" ref="V44">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A78)),1),"-")</f>
+        <f t="array" ref="V44">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A79)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="W44" s="54"/>
@@ -19112,7 +19088,7 @@
       <c r="F45" s="39"/>
       <c r="G45" s="40"/>
       <c r="H45" s="52" t="str" cm="1">
-        <f t="array" ref="H45">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A39)),1),"-")</f>
+        <f t="array" ref="H45">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A40)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="I45" s="39"/>
@@ -19122,7 +19098,7 @@
       <c r="M45" s="39"/>
       <c r="N45" s="40"/>
       <c r="O45" s="39" t="str" cm="1">
-        <f t="array" ref="O45">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A59)),1),"-")</f>
+        <f t="array" ref="O45">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A60)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="P45" s="39"/>
@@ -19132,7 +19108,7 @@
       <c r="T45" s="39"/>
       <c r="U45" s="40"/>
       <c r="V45" s="54" t="str" cm="1">
-        <f t="array" ref="V45">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A79)),1),"-")</f>
+        <f t="array" ref="V45">IFERROR(INDEX('Base de Dados'!$A$3:$B$184,SMALL(IF('Base de Dados'!$B$3:$B$184=$B$23,ROW('Base de Dados'!$B$3:$B$184)-2),ROW(A80)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="W45" s="54"/>
@@ -19143,36 +19119,36 @@
       <c r="AB45" s="55"/>
     </row>
     <row r="47" spans="1:28" ht="18.75">
-      <c r="A47" s="73" t="s">
+      <c r="A47" s="63" t="s">
         <v>734</v>
       </c>
-      <c r="B47" s="74"/>
-      <c r="C47" s="74"/>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="74"/>
-      <c r="H47" s="74"/>
-      <c r="I47" s="74"/>
-      <c r="J47" s="74"/>
-      <c r="K47" s="74"/>
-      <c r="L47" s="74"/>
-      <c r="M47" s="74"/>
-      <c r="N47" s="74"/>
-      <c r="O47" s="74"/>
-      <c r="P47" s="74"/>
-      <c r="Q47" s="74"/>
-      <c r="R47" s="74"/>
-      <c r="S47" s="74"/>
-      <c r="T47" s="74"/>
-      <c r="U47" s="74"/>
-      <c r="V47" s="74"/>
-      <c r="W47" s="74"/>
-      <c r="X47" s="74"/>
-      <c r="Y47" s="74"/>
-      <c r="Z47" s="74"/>
-      <c r="AA47" s="74"/>
-      <c r="AB47" s="74"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="64"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="64"/>
+      <c r="K47" s="64"/>
+      <c r="L47" s="64"/>
+      <c r="M47" s="64"/>
+      <c r="N47" s="64"/>
+      <c r="O47" s="64"/>
+      <c r="P47" s="64"/>
+      <c r="Q47" s="64"/>
+      <c r="R47" s="64"/>
+      <c r="S47" s="64"/>
+      <c r="T47" s="64"/>
+      <c r="U47" s="64"/>
+      <c r="V47" s="64"/>
+      <c r="W47" s="64"/>
+      <c r="X47" s="64"/>
+      <c r="Y47" s="64"/>
+      <c r="Z47" s="64"/>
+      <c r="AA47" s="64"/>
+      <c r="AB47" s="64"/>
     </row>
     <row r="48" spans="1:28" ht="21">
       <c r="A48" s="27" t="s">
@@ -19212,36 +19188,36 @@
       <c r="O49" s="12"/>
     </row>
     <row r="50" spans="1:28">
-      <c r="A50" s="71" t="s">
+      <c r="A50" s="61" t="s">
         <v>733</v>
       </c>
-      <c r="B50" s="72"/>
-      <c r="C50" s="72"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="72"/>
-      <c r="F50" s="72"/>
-      <c r="G50" s="72"/>
-      <c r="H50" s="72"/>
-      <c r="I50" s="72"/>
-      <c r="J50" s="72"/>
-      <c r="K50" s="72"/>
-      <c r="L50" s="72"/>
-      <c r="M50" s="72"/>
-      <c r="N50" s="72"/>
-      <c r="O50" s="72"/>
-      <c r="P50" s="72"/>
-      <c r="Q50" s="72"/>
-      <c r="R50" s="72"/>
-      <c r="S50" s="72"/>
-      <c r="T50" s="72"/>
-      <c r="U50" s="72"/>
-      <c r="V50" s="75"/>
-      <c r="W50" s="75"/>
-      <c r="X50" s="75"/>
-      <c r="Y50" s="75"/>
-      <c r="Z50" s="75"/>
-      <c r="AA50" s="75"/>
-      <c r="AB50" s="75"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="62"/>
+      <c r="H50" s="62"/>
+      <c r="I50" s="62"/>
+      <c r="J50" s="62"/>
+      <c r="K50" s="62"/>
+      <c r="L50" s="62"/>
+      <c r="M50" s="62"/>
+      <c r="N50" s="62"/>
+      <c r="O50" s="62"/>
+      <c r="P50" s="62"/>
+      <c r="Q50" s="62"/>
+      <c r="R50" s="62"/>
+      <c r="S50" s="62"/>
+      <c r="T50" s="62"/>
+      <c r="U50" s="62"/>
+      <c r="V50" s="65"/>
+      <c r="W50" s="65"/>
+      <c r="X50" s="65"/>
+      <c r="Y50" s="65"/>
+      <c r="Z50" s="65"/>
+      <c r="AA50" s="65"/>
+      <c r="AB50" s="65"/>
     </row>
     <row r="51" spans="1:28">
       <c r="A51" s="39" t="str" cm="1">
@@ -19255,7 +19231,7 @@
       <c r="F51" s="39"/>
       <c r="G51" s="40"/>
       <c r="H51" s="53" t="str" cm="1">
-        <f t="array" ref="H51">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A20)),1)," -")</f>
+        <f t="array" ref="H51">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A21)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="I51" s="54"/>
@@ -19265,7 +19241,7 @@
       <c r="M51" s="54"/>
       <c r="N51" s="55"/>
       <c r="O51" s="54" t="str" cm="1">
-        <f t="array" ref="O51">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A40)),1)," -")</f>
+        <f t="array" ref="O51">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A41)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="P51" s="54"/>
@@ -19275,7 +19251,7 @@
       <c r="T51" s="54"/>
       <c r="U51" s="55"/>
       <c r="V51" s="54" t="str" cm="1">
-        <f t="array" ref="V51">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A60)),1)," -")</f>
+        <f t="array" ref="V51">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A61)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="W51" s="54"/>
@@ -19297,7 +19273,7 @@
       <c r="F52" s="39"/>
       <c r="G52" s="40"/>
       <c r="H52" s="53" t="str" cm="1">
-        <f t="array" ref="H52">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A21)),1)," -")</f>
+        <f t="array" ref="H52">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A22)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="I52" s="54"/>
@@ -19307,7 +19283,7 @@
       <c r="M52" s="54"/>
       <c r="N52" s="55"/>
       <c r="O52" s="54" t="str" cm="1">
-        <f t="array" ref="O52">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A41)),1)," -")</f>
+        <f t="array" ref="O52">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A42)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="P52" s="54"/>
@@ -19317,7 +19293,7 @@
       <c r="T52" s="54"/>
       <c r="U52" s="55"/>
       <c r="V52" s="54" t="str" cm="1">
-        <f t="array" ref="V52">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A61)),1)," -")</f>
+        <f t="array" ref="V52">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A62)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="W52" s="54"/>
@@ -19339,7 +19315,7 @@
       <c r="F53" s="39"/>
       <c r="G53" s="40"/>
       <c r="H53" s="53" t="str" cm="1">
-        <f t="array" ref="H53">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A22)),1)," -")</f>
+        <f t="array" ref="H53">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A23)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="I53" s="54"/>
@@ -19349,7 +19325,7 @@
       <c r="M53" s="54"/>
       <c r="N53" s="55"/>
       <c r="O53" s="54" t="str" cm="1">
-        <f t="array" ref="O53">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A42)),1)," -")</f>
+        <f t="array" ref="O53">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A43)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="P53" s="54"/>
@@ -19359,7 +19335,7 @@
       <c r="T53" s="54"/>
       <c r="U53" s="55"/>
       <c r="V53" s="54" t="str" cm="1">
-        <f t="array" ref="V53">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A62)),1)," -")</f>
+        <f t="array" ref="V53">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A63)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="W53" s="54"/>
@@ -19381,7 +19357,7 @@
       <c r="F54" s="39"/>
       <c r="G54" s="40"/>
       <c r="H54" s="53" t="str" cm="1">
-        <f t="array" ref="H54">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A23)),1)," -")</f>
+        <f t="array" ref="H54">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A24)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="I54" s="54"/>
@@ -19391,7 +19367,7 @@
       <c r="M54" s="54"/>
       <c r="N54" s="55"/>
       <c r="O54" s="54" t="str" cm="1">
-        <f t="array" ref="O54">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A43)),1)," -")</f>
+        <f t="array" ref="O54">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A44)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="P54" s="54"/>
@@ -19401,7 +19377,7 @@
       <c r="T54" s="54"/>
       <c r="U54" s="55"/>
       <c r="V54" s="54" t="str" cm="1">
-        <f t="array" ref="V54">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A63)),1)," -")</f>
+        <f t="array" ref="V54">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A64)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="W54" s="54"/>
@@ -19423,7 +19399,7 @@
       <c r="F55" s="39"/>
       <c r="G55" s="40"/>
       <c r="H55" s="53" t="str" cm="1">
-        <f t="array" ref="H55">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A24)),1)," -")</f>
+        <f t="array" ref="H55">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A25)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="I55" s="54"/>
@@ -19433,7 +19409,7 @@
       <c r="M55" s="54"/>
       <c r="N55" s="55"/>
       <c r="O55" s="54" t="str" cm="1">
-        <f t="array" ref="O55">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A44)),1)," -")</f>
+        <f t="array" ref="O55">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A45)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="P55" s="54"/>
@@ -19443,7 +19419,7 @@
       <c r="T55" s="54"/>
       <c r="U55" s="55"/>
       <c r="V55" s="54" t="str" cm="1">
-        <f t="array" ref="V55">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A64)),1)," -")</f>
+        <f t="array" ref="V55">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A65)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="W55" s="54"/>
@@ -19465,7 +19441,7 @@
       <c r="F56" s="39"/>
       <c r="G56" s="40"/>
       <c r="H56" s="53" t="str" cm="1">
-        <f t="array" ref="H56">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A25)),1)," -")</f>
+        <f t="array" ref="H56">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A26)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="I56" s="54"/>
@@ -19475,7 +19451,7 @@
       <c r="M56" s="54"/>
       <c r="N56" s="55"/>
       <c r="O56" s="54" t="str" cm="1">
-        <f t="array" ref="O56">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A45)),1)," -")</f>
+        <f t="array" ref="O56">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A46)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="P56" s="54"/>
@@ -19485,7 +19461,7 @@
       <c r="T56" s="54"/>
       <c r="U56" s="55"/>
       <c r="V56" s="54" t="str" cm="1">
-        <f t="array" ref="V56">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A65)),1)," -")</f>
+        <f t="array" ref="V56">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A66)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="W56" s="54"/>
@@ -19507,7 +19483,7 @@
       <c r="F57" s="39"/>
       <c r="G57" s="40"/>
       <c r="H57" s="53" t="str" cm="1">
-        <f t="array" ref="H57">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A26)),1)," -")</f>
+        <f t="array" ref="H57">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A27)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="I57" s="54"/>
@@ -19517,7 +19493,7 @@
       <c r="M57" s="54"/>
       <c r="N57" s="55"/>
       <c r="O57" s="54" t="str" cm="1">
-        <f t="array" ref="O57">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A46)),1)," -")</f>
+        <f t="array" ref="O57">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A47)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="P57" s="54"/>
@@ -19527,7 +19503,7 @@
       <c r="T57" s="54"/>
       <c r="U57" s="55"/>
       <c r="V57" s="54" t="str" cm="1">
-        <f t="array" ref="V57">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A66)),1)," -")</f>
+        <f t="array" ref="V57">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A67)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="W57" s="54"/>
@@ -19549,7 +19525,7 @@
       <c r="F58" s="39"/>
       <c r="G58" s="40"/>
       <c r="H58" s="53" t="str" cm="1">
-        <f t="array" ref="H58">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A27)),1)," -")</f>
+        <f t="array" ref="H58">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A28)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="I58" s="54"/>
@@ -19559,7 +19535,7 @@
       <c r="M58" s="54"/>
       <c r="N58" s="55"/>
       <c r="O58" s="54" t="str" cm="1">
-        <f t="array" ref="O58">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A47)),1)," -")</f>
+        <f t="array" ref="O58">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A48)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="P58" s="54"/>
@@ -19569,7 +19545,7 @@
       <c r="T58" s="54"/>
       <c r="U58" s="55"/>
       <c r="V58" s="54" t="str" cm="1">
-        <f t="array" ref="V58">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A67)),1)," -")</f>
+        <f t="array" ref="V58">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A68)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="W58" s="54"/>
@@ -19591,7 +19567,7 @@
       <c r="F59" s="39"/>
       <c r="G59" s="40"/>
       <c r="H59" s="53" t="str" cm="1">
-        <f t="array" ref="H59">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A28)),1)," -")</f>
+        <f t="array" ref="H59">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A29)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="I59" s="54"/>
@@ -19601,7 +19577,7 @@
       <c r="M59" s="54"/>
       <c r="N59" s="55"/>
       <c r="O59" s="54" t="str" cm="1">
-        <f t="array" ref="O59">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A48)),1)," -")</f>
+        <f t="array" ref="O59">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A49)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="P59" s="54"/>
@@ -19611,7 +19587,7 @@
       <c r="T59" s="54"/>
       <c r="U59" s="55"/>
       <c r="V59" s="54" t="str" cm="1">
-        <f t="array" ref="V59">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A68)),1)," -")</f>
+        <f t="array" ref="V59">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A69)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="W59" s="54"/>
@@ -19633,7 +19609,7 @@
       <c r="F60" s="39"/>
       <c r="G60" s="40"/>
       <c r="H60" s="53" t="str" cm="1">
-        <f t="array" ref="H60">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A29)),1)," -")</f>
+        <f t="array" ref="H60">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A30)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="I60" s="54"/>
@@ -19643,7 +19619,7 @@
       <c r="M60" s="54"/>
       <c r="N60" s="55"/>
       <c r="O60" s="54" t="str" cm="1">
-        <f t="array" ref="O60">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A49)),1)," -")</f>
+        <f t="array" ref="O60">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A50)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="P60" s="54"/>
@@ -19653,7 +19629,7 @@
       <c r="T60" s="54"/>
       <c r="U60" s="55"/>
       <c r="V60" s="54" t="str" cm="1">
-        <f t="array" ref="V60">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A69)),1)," -")</f>
+        <f t="array" ref="V60">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A70)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="W60" s="54"/>
@@ -19675,7 +19651,7 @@
       <c r="F61" s="39"/>
       <c r="G61" s="40"/>
       <c r="H61" s="53" t="str" cm="1">
-        <f t="array" ref="H61">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A30)),1)," -")</f>
+        <f t="array" ref="H61">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A31)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="I61" s="54"/>
@@ -19685,7 +19661,7 @@
       <c r="M61" s="54"/>
       <c r="N61" s="55"/>
       <c r="O61" s="54" t="str" cm="1">
-        <f t="array" ref="O61">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A50)),1)," -")</f>
+        <f t="array" ref="O61">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A51)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="P61" s="54"/>
@@ -19695,7 +19671,7 @@
       <c r="T61" s="54"/>
       <c r="U61" s="55"/>
       <c r="V61" s="54" t="str" cm="1">
-        <f t="array" ref="V61">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A70)),1)," -")</f>
+        <f t="array" ref="V61">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A71)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="W61" s="54"/>
@@ -19717,7 +19693,7 @@
       <c r="F62" s="39"/>
       <c r="G62" s="40"/>
       <c r="H62" s="53" t="str" cm="1">
-        <f t="array" ref="H62">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A31)),1)," -")</f>
+        <f t="array" ref="H62">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A32)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="I62" s="54"/>
@@ -19727,7 +19703,7 @@
       <c r="M62" s="54"/>
       <c r="N62" s="55"/>
       <c r="O62" s="54" t="str" cm="1">
-        <f t="array" ref="O62">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A51)),1)," -")</f>
+        <f t="array" ref="O62">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A52)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="P62" s="54"/>
@@ -19737,7 +19713,7 @@
       <c r="T62" s="54"/>
       <c r="U62" s="55"/>
       <c r="V62" s="54" t="str" cm="1">
-        <f t="array" ref="V62">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A71)),1)," -")</f>
+        <f t="array" ref="V62">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A72)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="W62" s="54"/>
@@ -19759,7 +19735,7 @@
       <c r="F63" s="39"/>
       <c r="G63" s="40"/>
       <c r="H63" s="53" t="str" cm="1">
-        <f t="array" ref="H63">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A32)),1)," -")</f>
+        <f t="array" ref="H63">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A33)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="I63" s="54"/>
@@ -19769,7 +19745,7 @@
       <c r="M63" s="54"/>
       <c r="N63" s="55"/>
       <c r="O63" s="54" t="str" cm="1">
-        <f t="array" ref="O63">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A52)),1)," -")</f>
+        <f t="array" ref="O63">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A53)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="P63" s="54"/>
@@ -19779,7 +19755,7 @@
       <c r="T63" s="54"/>
       <c r="U63" s="55"/>
       <c r="V63" s="54" t="str" cm="1">
-        <f t="array" ref="V63">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A72)),1)," -")</f>
+        <f t="array" ref="V63">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A73)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="W63" s="54"/>
@@ -19801,7 +19777,7 @@
       <c r="F64" s="39"/>
       <c r="G64" s="40"/>
       <c r="H64" s="53" t="str" cm="1">
-        <f t="array" ref="H64">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A33)),1)," -")</f>
+        <f t="array" ref="H64">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A34)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="I64" s="54"/>
@@ -19811,7 +19787,7 @@
       <c r="M64" s="54"/>
       <c r="N64" s="55"/>
       <c r="O64" s="54" t="str" cm="1">
-        <f t="array" ref="O64">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A53)),1)," -")</f>
+        <f t="array" ref="O64">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A54)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="P64" s="54"/>
@@ -19821,7 +19797,7 @@
       <c r="T64" s="54"/>
       <c r="U64" s="55"/>
       <c r="V64" s="54" t="str" cm="1">
-        <f t="array" ref="V64">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A73)),1)," -")</f>
+        <f t="array" ref="V64">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A74)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="W64" s="54"/>
@@ -19843,7 +19819,7 @@
       <c r="F65" s="39"/>
       <c r="G65" s="40"/>
       <c r="H65" s="53" t="str" cm="1">
-        <f t="array" ref="H65">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A34)),1)," -")</f>
+        <f t="array" ref="H65">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A35)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="I65" s="54"/>
@@ -19853,7 +19829,7 @@
       <c r="M65" s="54"/>
       <c r="N65" s="55"/>
       <c r="O65" s="54" t="str" cm="1">
-        <f t="array" ref="O65">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A54)),1)," -")</f>
+        <f t="array" ref="O65">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A55)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="P65" s="54"/>
@@ -19863,7 +19839,7 @@
       <c r="T65" s="54"/>
       <c r="U65" s="55"/>
       <c r="V65" s="54" t="str" cm="1">
-        <f t="array" ref="V65">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A74)),1)," -")</f>
+        <f t="array" ref="V65">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A75)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="W65" s="54"/>
@@ -19885,7 +19861,7 @@
       <c r="F66" s="39"/>
       <c r="G66" s="40"/>
       <c r="H66" s="53" t="str" cm="1">
-        <f t="array" ref="H66">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A35)),1)," -")</f>
+        <f t="array" ref="H66">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A36)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="I66" s="54"/>
@@ -19895,7 +19871,7 @@
       <c r="M66" s="54"/>
       <c r="N66" s="55"/>
       <c r="O66" s="54" t="str" cm="1">
-        <f t="array" ref="O66">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A55)),1)," -")</f>
+        <f t="array" ref="O66">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A56)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="P66" s="54"/>
@@ -19905,7 +19881,7 @@
       <c r="T66" s="54"/>
       <c r="U66" s="55"/>
       <c r="V66" s="54" t="str" cm="1">
-        <f t="array" ref="V66">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A75)),1)," -")</f>
+        <f t="array" ref="V66">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A76)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="W66" s="54"/>
@@ -19927,7 +19903,7 @@
       <c r="F67" s="39"/>
       <c r="G67" s="40"/>
       <c r="H67" s="53" t="str" cm="1">
-        <f t="array" ref="H67">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A36)),1)," -")</f>
+        <f t="array" ref="H67">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A37)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="I67" s="54"/>
@@ -19937,7 +19913,7 @@
       <c r="M67" s="54"/>
       <c r="N67" s="55"/>
       <c r="O67" s="54" t="str" cm="1">
-        <f t="array" ref="O67">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A56)),1)," -")</f>
+        <f t="array" ref="O67">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A57)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="P67" s="54"/>
@@ -19947,7 +19923,7 @@
       <c r="T67" s="54"/>
       <c r="U67" s="55"/>
       <c r="V67" s="54" t="str" cm="1">
-        <f t="array" ref="V67">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A76)),1)," -")</f>
+        <f t="array" ref="V67">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A77)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="W67" s="54"/>
@@ -19969,7 +19945,7 @@
       <c r="F68" s="39"/>
       <c r="G68" s="40"/>
       <c r="H68" s="53" t="str" cm="1">
-        <f t="array" ref="H68">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A37)),1)," -")</f>
+        <f t="array" ref="H68">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A38)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="I68" s="54"/>
@@ -19979,7 +19955,7 @@
       <c r="M68" s="54"/>
       <c r="N68" s="55"/>
       <c r="O68" s="54" t="str" cm="1">
-        <f t="array" ref="O68">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A57)),1)," -")</f>
+        <f t="array" ref="O68">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A58)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="P68" s="54"/>
@@ -19989,7 +19965,7 @@
       <c r="T68" s="54"/>
       <c r="U68" s="55"/>
       <c r="V68" s="54" t="str" cm="1">
-        <f t="array" ref="V68">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A77)),1)," -")</f>
+        <f t="array" ref="V68">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A78)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="W68" s="54"/>
@@ -20011,7 +19987,7 @@
       <c r="F69" s="39"/>
       <c r="G69" s="40"/>
       <c r="H69" s="53" t="str" cm="1">
-        <f t="array" ref="H69">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A38)),1)," -")</f>
+        <f t="array" ref="H69">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A39)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="I69" s="54"/>
@@ -20021,7 +19997,7 @@
       <c r="M69" s="54"/>
       <c r="N69" s="55"/>
       <c r="O69" s="54" t="str" cm="1">
-        <f t="array" ref="O69">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A58)),1)," -")</f>
+        <f t="array" ref="O69">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A59)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="P69" s="54"/>
@@ -20031,7 +20007,7 @@
       <c r="T69" s="54"/>
       <c r="U69" s="55"/>
       <c r="V69" s="54" t="str" cm="1">
-        <f t="array" ref="V69">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A78)),1)," -")</f>
+        <f t="array" ref="V69">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A79)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="W69" s="54"/>
@@ -20053,7 +20029,7 @@
       <c r="F70" s="39"/>
       <c r="G70" s="40"/>
       <c r="H70" s="53" t="str" cm="1">
-        <f t="array" ref="H70">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A39)),1)," -")</f>
+        <f t="array" ref="H70">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A40)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="I70" s="54"/>
@@ -20063,7 +20039,7 @@
       <c r="M70" s="54"/>
       <c r="N70" s="55"/>
       <c r="O70" s="54" t="str" cm="1">
-        <f t="array" ref="O70">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A59)),1)," -")</f>
+        <f t="array" ref="O70">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A60)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="P70" s="54"/>
@@ -20073,7 +20049,7 @@
       <c r="T70" s="54"/>
       <c r="U70" s="55"/>
       <c r="V70" s="54" t="str" cm="1">
-        <f t="array" ref="V70">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A79)),1)," -")</f>
+        <f t="array" ref="V70">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A80)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="W70" s="54"/>
@@ -20084,36 +20060,36 @@
       <c r="AB70" s="55"/>
     </row>
     <row r="72" spans="1:28" ht="18.75">
-      <c r="A72" s="73" t="s">
+      <c r="A72" s="63" t="s">
         <v>737</v>
       </c>
-      <c r="B72" s="74"/>
-      <c r="C72" s="74"/>
-      <c r="D72" s="74"/>
-      <c r="E72" s="74"/>
-      <c r="F72" s="74"/>
-      <c r="G72" s="74"/>
-      <c r="H72" s="74"/>
-      <c r="I72" s="74"/>
-      <c r="J72" s="74"/>
-      <c r="K72" s="74"/>
-      <c r="L72" s="74"/>
-      <c r="M72" s="74"/>
-      <c r="N72" s="74"/>
-      <c r="O72" s="74"/>
-      <c r="P72" s="74"/>
-      <c r="Q72" s="74"/>
-      <c r="R72" s="74"/>
-      <c r="S72" s="74"/>
-      <c r="T72" s="74"/>
-      <c r="U72" s="74"/>
-      <c r="V72" s="74"/>
-      <c r="W72" s="74"/>
-      <c r="X72" s="74"/>
-      <c r="Y72" s="74"/>
-      <c r="Z72" s="74"/>
-      <c r="AA72" s="74"/>
-      <c r="AB72" s="74"/>
+      <c r="B72" s="64"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="64"/>
+      <c r="F72" s="64"/>
+      <c r="G72" s="64"/>
+      <c r="H72" s="64"/>
+      <c r="I72" s="64"/>
+      <c r="J72" s="64"/>
+      <c r="K72" s="64"/>
+      <c r="L72" s="64"/>
+      <c r="M72" s="64"/>
+      <c r="N72" s="64"/>
+      <c r="O72" s="64"/>
+      <c r="P72" s="64"/>
+      <c r="Q72" s="64"/>
+      <c r="R72" s="64"/>
+      <c r="S72" s="64"/>
+      <c r="T72" s="64"/>
+      <c r="U72" s="64"/>
+      <c r="V72" s="64"/>
+      <c r="W72" s="64"/>
+      <c r="X72" s="64"/>
+      <c r="Y72" s="64"/>
+      <c r="Z72" s="64"/>
+      <c r="AA72" s="64"/>
+      <c r="AB72" s="64"/>
     </row>
     <row r="73" spans="1:28" ht="21">
       <c r="A73" s="27" t="s">
@@ -20153,36 +20129,36 @@
       <c r="O74" s="15"/>
     </row>
     <row r="75" spans="1:28">
-      <c r="A75" s="71" t="s">
+      <c r="A75" s="61" t="s">
         <v>733</v>
       </c>
-      <c r="B75" s="72"/>
-      <c r="C75" s="72"/>
-      <c r="D75" s="72"/>
-      <c r="E75" s="72"/>
-      <c r="F75" s="72"/>
-      <c r="G75" s="72"/>
-      <c r="H75" s="72"/>
-      <c r="I75" s="72"/>
-      <c r="J75" s="72"/>
-      <c r="K75" s="72"/>
-      <c r="L75" s="72"/>
-      <c r="M75" s="72"/>
-      <c r="N75" s="72"/>
-      <c r="O75" s="72"/>
-      <c r="P75" s="72"/>
-      <c r="Q75" s="72"/>
-      <c r="R75" s="72"/>
-      <c r="S75" s="72"/>
-      <c r="T75" s="72"/>
-      <c r="U75" s="72"/>
-      <c r="V75" s="72"/>
-      <c r="W75" s="72"/>
-      <c r="X75" s="72"/>
-      <c r="Y75" s="72"/>
-      <c r="Z75" s="72"/>
-      <c r="AA75" s="72"/>
-      <c r="AB75" s="72"/>
+      <c r="B75" s="62"/>
+      <c r="C75" s="62"/>
+      <c r="D75" s="62"/>
+      <c r="E75" s="62"/>
+      <c r="F75" s="62"/>
+      <c r="G75" s="62"/>
+      <c r="H75" s="62"/>
+      <c r="I75" s="62"/>
+      <c r="J75" s="62"/>
+      <c r="K75" s="62"/>
+      <c r="L75" s="62"/>
+      <c r="M75" s="62"/>
+      <c r="N75" s="62"/>
+      <c r="O75" s="62"/>
+      <c r="P75" s="62"/>
+      <c r="Q75" s="62"/>
+      <c r="R75" s="62"/>
+      <c r="S75" s="62"/>
+      <c r="T75" s="62"/>
+      <c r="U75" s="62"/>
+      <c r="V75" s="62"/>
+      <c r="W75" s="62"/>
+      <c r="X75" s="62"/>
+      <c r="Y75" s="62"/>
+      <c r="Z75" s="62"/>
+      <c r="AA75" s="62"/>
+      <c r="AB75" s="62"/>
     </row>
     <row r="76" spans="1:28">
       <c r="A76" s="45" t="str" cm="1">
@@ -20196,8 +20172,8 @@
       <c r="F76" s="45"/>
       <c r="G76" s="46"/>
       <c r="H76" s="47" t="str" cm="1">
-        <f t="array" ref="H76">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A20)),1),"-")</f>
-        <v>Não se Desespere!</v>
+        <f t="array" ref="H76">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A21)),1),"-")</f>
+        <v>Não Espere Pelo Epitáfio!</v>
       </c>
       <c r="I76" s="47"/>
       <c r="J76" s="47"/>
@@ -20206,8 +20182,8 @@
       <c r="M76" s="47"/>
       <c r="N76" s="47"/>
       <c r="O76" s="48" t="str" cm="1">
-        <f t="array" ref="O76">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A40)),1),"-")</f>
-        <v>Biologia (Ensino Médio)</v>
+        <f t="array" ref="O76">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A41)),1),"-")</f>
+        <v>Português Prático</v>
       </c>
       <c r="P76" s="47"/>
       <c r="Q76" s="47"/>
@@ -20216,7 +20192,7 @@
       <c r="T76" s="47"/>
       <c r="U76" s="58"/>
       <c r="V76" s="54" t="str" cm="1">
-        <f t="array" ref="V76">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A60)),1)," -")</f>
+        <f t="array" ref="V76">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A61)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="W76" s="54"/>
@@ -20237,9 +20213,9 @@
       <c r="E77" s="45"/>
       <c r="F77" s="45"/>
       <c r="G77" s="46"/>
-      <c r="H77" s="48" t="str" cm="1">
-        <f t="array" ref="H77">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A21)),1),"-")</f>
-        <v>Não Espere Pelo Epitáfio!</v>
+      <c r="H77" s="47" t="str" cm="1">
+        <f t="array" ref="H77">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A22)),1),"-")</f>
+        <v>Não Nascemos Prontos!</v>
       </c>
       <c r="I77" s="47"/>
       <c r="J77" s="47"/>
@@ -20248,8 +20224,8 @@
       <c r="M77" s="47"/>
       <c r="N77" s="47"/>
       <c r="O77" s="48" t="str" cm="1">
-        <f t="array" ref="O77">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A41)),1),"-")</f>
-        <v>Português Prático</v>
+        <f t="array" ref="O77">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A42)),1),"-")</f>
+        <v>Química (Ensino Médio)</v>
       </c>
       <c r="P77" s="47"/>
       <c r="Q77" s="47"/>
@@ -20258,7 +20234,7 @@
       <c r="T77" s="47"/>
       <c r="U77" s="58"/>
       <c r="V77" s="54" t="str" cm="1">
-        <f t="array" ref="V77">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A61)),1)," -")</f>
+        <f t="array" ref="V77">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A62)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="W77" s="54"/>
@@ -20279,9 +20255,9 @@
       <c r="E78" s="45"/>
       <c r="F78" s="45"/>
       <c r="G78" s="46"/>
-      <c r="H78" s="48" t="str" cm="1">
-        <f t="array" ref="H78">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A22)),1),"-")</f>
-        <v>Não Nascemos Prontos!</v>
+      <c r="H78" s="47" t="str" cm="1">
+        <f t="array" ref="H78">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A23)),1),"-")</f>
+        <v>Filhos Brilhantes, Alunos Fascinantes</v>
       </c>
       <c r="I78" s="47"/>
       <c r="J78" s="47"/>
@@ -20290,8 +20266,8 @@
       <c r="M78" s="47"/>
       <c r="N78" s="47"/>
       <c r="O78" s="48" t="str" cm="1">
-        <f t="array" ref="O78">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A42)),1),"-")</f>
-        <v>Química (Ensino Médio)</v>
+        <f t="array" ref="O78">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A43)),1),"-")</f>
+        <v>Teoria da Usinagem de Materiais</v>
       </c>
       <c r="P78" s="47"/>
       <c r="Q78" s="47"/>
@@ -20300,7 +20276,7 @@
       <c r="T78" s="47"/>
       <c r="U78" s="58"/>
       <c r="V78" s="54" t="str" cm="1">
-        <f t="array" ref="V78">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A62)),1)," -")</f>
+        <f t="array" ref="V78">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A63)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="W78" s="54"/>
@@ -20321,9 +20297,9 @@
       <c r="E79" s="45"/>
       <c r="F79" s="45"/>
       <c r="G79" s="46"/>
-      <c r="H79" s="48" t="str" cm="1">
-        <f t="array" ref="H79">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A23)),1),"-")</f>
-        <v>Filhos Brilhantes, Alunos Fascinantes</v>
+      <c r="H79" s="47" t="str" cm="1">
+        <f t="array" ref="H79">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A24)),1),"-")</f>
+        <v>Feliz</v>
       </c>
       <c r="I79" s="47"/>
       <c r="J79" s="47"/>
@@ -20332,8 +20308,8 @@
       <c r="M79" s="47"/>
       <c r="N79" s="47"/>
       <c r="O79" s="48" t="str" cm="1">
-        <f t="array" ref="O79">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A43)),1),"-")</f>
-        <v>Teoria da Usinagem de Materiais</v>
+        <f t="array" ref="O79">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A44)),1),"-")</f>
+        <v>Elementos de Eletrônica Digital</v>
       </c>
       <c r="P79" s="47"/>
       <c r="Q79" s="47"/>
@@ -20342,7 +20318,7 @@
       <c r="T79" s="47"/>
       <c r="U79" s="58"/>
       <c r="V79" s="54" t="str" cm="1">
-        <f t="array" ref="V79">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A63)),1)," -")</f>
+        <f t="array" ref="V79">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A64)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="W79" s="54"/>
@@ -20363,9 +20339,9 @@
       <c r="E80" s="45"/>
       <c r="F80" s="45"/>
       <c r="G80" s="46"/>
-      <c r="H80" s="48" t="str" cm="1">
-        <f t="array" ref="H80">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A24)),1),"-")</f>
-        <v>Feliz</v>
+      <c r="H80" s="47" t="str" cm="1">
+        <f t="array" ref="H80">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A25)),1),"-")</f>
+        <v>História do Brasil</v>
       </c>
       <c r="I80" s="47"/>
       <c r="J80" s="47"/>
@@ -20374,8 +20350,8 @@
       <c r="M80" s="47"/>
       <c r="N80" s="47"/>
       <c r="O80" s="48" t="str" cm="1">
-        <f t="array" ref="O80">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A44)),1),"-")</f>
-        <v>Elementos de Eletrônica Digital</v>
+        <f t="array" ref="O80">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A45)),1),"-")</f>
+        <v>11º Congresso de Iniciação Científica</v>
       </c>
       <c r="P80" s="47"/>
       <c r="Q80" s="47"/>
@@ -20384,7 +20360,7 @@
       <c r="T80" s="47"/>
       <c r="U80" s="58"/>
       <c r="V80" s="54" t="str" cm="1">
-        <f t="array" ref="V80">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A64)),1)," -")</f>
+        <f t="array" ref="V80">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A65)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="W80" s="54"/>
@@ -20405,9 +20381,9 @@
       <c r="E81" s="45"/>
       <c r="F81" s="45"/>
       <c r="G81" s="46"/>
-      <c r="H81" s="48" t="str" cm="1">
-        <f t="array" ref="H81">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A25)),1),"-")</f>
-        <v>História do Brasil</v>
+      <c r="H81" s="47" t="str" cm="1">
+        <f t="array" ref="H81">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A26)),1),"-")</f>
+        <v>A Bíblia do Caos</v>
       </c>
       <c r="I81" s="47"/>
       <c r="J81" s="47"/>
@@ -20416,8 +20392,8 @@
       <c r="M81" s="47"/>
       <c r="N81" s="47"/>
       <c r="O81" s="48" t="str" cm="1">
-        <f t="array" ref="O81">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A45)),1),"-")</f>
-        <v>11º Congresso de Iniciação Científica</v>
+        <f t="array" ref="O81">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A46)),1),"-")</f>
+        <v>Viva Natural</v>
       </c>
       <c r="P81" s="47"/>
       <c r="Q81" s="47"/>
@@ -20426,7 +20402,7 @@
       <c r="T81" s="47"/>
       <c r="U81" s="58"/>
       <c r="V81" s="54" t="str" cm="1">
-        <f t="array" ref="V81">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A65)),1)," -")</f>
+        <f t="array" ref="V81">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A66)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="W81" s="54"/>
@@ -20447,9 +20423,9 @@
       <c r="E82" s="45"/>
       <c r="F82" s="45"/>
       <c r="G82" s="46"/>
-      <c r="H82" s="48" t="str" cm="1">
-        <f t="array" ref="H82">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A26)),1),"-")</f>
-        <v>A Bíblia do Caos</v>
+      <c r="H82" s="47" t="str" cm="1">
+        <f t="array" ref="H82">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A27)),1),"-")</f>
+        <v>Manual de Administração Pessoal</v>
       </c>
       <c r="I82" s="47"/>
       <c r="J82" s="47"/>
@@ -20458,8 +20434,8 @@
       <c r="M82" s="47"/>
       <c r="N82" s="47"/>
       <c r="O82" s="48" t="str" cm="1">
-        <f t="array" ref="O82">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A46)),1),"-")</f>
-        <v>Viva Natural</v>
+        <f t="array" ref="O82">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A47)),1),"-")</f>
+        <v>Larousse Avançado - Inglês / Português</v>
       </c>
       <c r="P82" s="47"/>
       <c r="Q82" s="47"/>
@@ -20468,7 +20444,7 @@
       <c r="T82" s="47"/>
       <c r="U82" s="58"/>
       <c r="V82" s="54" t="str" cm="1">
-        <f t="array" ref="V82">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A66)),1)," -")</f>
+        <f t="array" ref="V82">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A67)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="W82" s="54"/>
@@ -20489,9 +20465,9 @@
       <c r="E83" s="45"/>
       <c r="F83" s="45"/>
       <c r="G83" s="46"/>
-      <c r="H83" s="48" t="str" cm="1">
-        <f t="array" ref="H83">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A27)),1),"-")</f>
-        <v>Manual de Administração Pessoal</v>
+      <c r="H83" s="47" t="str" cm="1">
+        <f t="array" ref="H83">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A28)),1),"-")</f>
+        <v>Plano de Marketing para Micro e Pequena Empresa</v>
       </c>
       <c r="I83" s="47"/>
       <c r="J83" s="47"/>
@@ -20500,8 +20476,8 @@
       <c r="M83" s="47"/>
       <c r="N83" s="47"/>
       <c r="O83" s="48" t="str" cm="1">
-        <f t="array" ref="O83">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A47)),1),"-")</f>
-        <v>Larousse Avançado - Inglês / Português</v>
+        <f t="array" ref="O83">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A48)),1),"-")</f>
+        <v>Larousse Mini - Francês / Português</v>
       </c>
       <c r="P83" s="47"/>
       <c r="Q83" s="47"/>
@@ -20510,7 +20486,7 @@
       <c r="T83" s="47"/>
       <c r="U83" s="58"/>
       <c r="V83" s="54" t="str" cm="1">
-        <f t="array" ref="V83">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A67)),1)," -")</f>
+        <f t="array" ref="V83">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A68)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="W83" s="54"/>
@@ -20531,9 +20507,9 @@
       <c r="E84" s="45"/>
       <c r="F84" s="45"/>
       <c r="G84" s="46"/>
-      <c r="H84" s="48" t="str" cm="1">
-        <f t="array" ref="H84">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A28)),1),"-")</f>
-        <v>Plano de Marketing para Micro e Pequena Empresa</v>
+      <c r="H84" s="47" t="str" cm="1">
+        <f t="array" ref="H84">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A29)),1),"-")</f>
+        <v>Prática Administrativas em Escritório</v>
       </c>
       <c r="I84" s="47"/>
       <c r="J84" s="47"/>
@@ -20542,8 +20518,8 @@
       <c r="M84" s="47"/>
       <c r="N84" s="47"/>
       <c r="O84" s="48" t="str" cm="1">
-        <f t="array" ref="O84">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A48)),1),"-")</f>
-        <v>Larousse Mini - Francês / Português</v>
+        <f t="array" ref="O84">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A49)),1),"-")</f>
+        <v>Minigramática</v>
       </c>
       <c r="P84" s="47"/>
       <c r="Q84" s="47"/>
@@ -20552,7 +20528,7 @@
       <c r="T84" s="47"/>
       <c r="U84" s="58"/>
       <c r="V84" s="54" t="str" cm="1">
-        <f t="array" ref="V84">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A68)),1)," -")</f>
+        <f t="array" ref="V84">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A69)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="W84" s="54"/>
@@ -20573,9 +20549,9 @@
       <c r="E85" s="45"/>
       <c r="F85" s="45"/>
       <c r="G85" s="46"/>
-      <c r="H85" s="48" t="str" cm="1">
-        <f t="array" ref="H85">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A29)),1),"-")</f>
-        <v>Prática Administrativas em Escritório</v>
+      <c r="H85" s="47" t="str" cm="1">
+        <f t="array" ref="H85">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A30)),1),"-")</f>
+        <v>Boas Notícias</v>
       </c>
       <c r="I85" s="47"/>
       <c r="J85" s="47"/>
@@ -20584,8 +20560,8 @@
       <c r="M85" s="47"/>
       <c r="N85" s="47"/>
       <c r="O85" s="48" t="str" cm="1">
-        <f t="array" ref="O85">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A49)),1),"-")</f>
-        <v>Minigramática</v>
+        <f t="array" ref="O85">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A50)),1),"-")</f>
+        <v>Mini Aurélio</v>
       </c>
       <c r="P85" s="47"/>
       <c r="Q85" s="47"/>
@@ -20594,7 +20570,7 @@
       <c r="T85" s="47"/>
       <c r="U85" s="58"/>
       <c r="V85" s="54" t="str" cm="1">
-        <f t="array" ref="V85">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A69)),1)," -")</f>
+        <f t="array" ref="V85">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A70)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="W85" s="54"/>
@@ -20615,9 +20591,9 @@
       <c r="E86" s="45"/>
       <c r="F86" s="45"/>
       <c r="G86" s="46"/>
-      <c r="H86" s="48" t="str" cm="1">
-        <f t="array" ref="H86">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A30)),1),"-")</f>
-        <v>Boas Notícias</v>
+      <c r="H86" s="47" t="str" cm="1">
+        <f t="array" ref="H86">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A31)),1),"-")</f>
+        <v>Boas Notícias 2 - Frases para compartilhar</v>
       </c>
       <c r="I86" s="47"/>
       <c r="J86" s="47"/>
@@ -20626,7 +20602,7 @@
       <c r="M86" s="47"/>
       <c r="N86" s="47"/>
       <c r="O86" s="48" t="str" cm="1">
-        <f t="array" ref="O86">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A50)),1),"-")</f>
+        <f t="array" ref="O86">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A51)),1),"-")</f>
         <v>Mini Aurélio</v>
       </c>
       <c r="P86" s="47"/>
@@ -20636,7 +20612,7 @@
       <c r="T86" s="47"/>
       <c r="U86" s="58"/>
       <c r="V86" s="54" t="str" cm="1">
-        <f t="array" ref="V86">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A70)),1)," -")</f>
+        <f t="array" ref="V86">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A71)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="W86" s="54"/>
@@ -20657,9 +20633,9 @@
       <c r="E87" s="45"/>
       <c r="F87" s="45"/>
       <c r="G87" s="46"/>
-      <c r="H87" s="48" t="str" cm="1">
-        <f t="array" ref="H87">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A31)),1),"-")</f>
-        <v>Boas Notícias 2 - Frases para compartilhar</v>
+      <c r="H87" s="47" t="str" cm="1">
+        <f t="array" ref="H87">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A32)),1),"-")</f>
+        <v>Reformas no Brasil: Balanço e Agenda</v>
       </c>
       <c r="I87" s="47"/>
       <c r="J87" s="47"/>
@@ -20668,8 +20644,8 @@
       <c r="M87" s="47"/>
       <c r="N87" s="47"/>
       <c r="O87" s="48" t="str" cm="1">
-        <f t="array" ref="O87">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A51)),1),"-")</f>
-        <v>Mini Aurélio</v>
+        <f t="array" ref="O87">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A52)),1),"-")</f>
+        <v>Minidicionário Inglês</v>
       </c>
       <c r="P87" s="47"/>
       <c r="Q87" s="47"/>
@@ -20678,7 +20654,7 @@
       <c r="T87" s="47"/>
       <c r="U87" s="58"/>
       <c r="V87" s="54" t="str" cm="1">
-        <f t="array" ref="V87">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A71)),1)," -")</f>
+        <f t="array" ref="V87">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A72)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="W87" s="54"/>
@@ -20699,9 +20675,9 @@
       <c r="E88" s="45"/>
       <c r="F88" s="45"/>
       <c r="G88" s="46"/>
-      <c r="H88" s="48" t="str" cm="1">
-        <f t="array" ref="H88">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A32)),1),"-")</f>
-        <v>Reformas no Brasil: Balanço e Agenda</v>
+      <c r="H88" s="47" t="str" cm="1">
+        <f t="array" ref="H88">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A33)),1),"-")</f>
+        <v>Modernização, Ditadura e Democracia</v>
       </c>
       <c r="I88" s="47"/>
       <c r="J88" s="47"/>
@@ -20710,8 +20686,8 @@
       <c r="M88" s="47"/>
       <c r="N88" s="47"/>
       <c r="O88" s="48" t="str" cm="1">
-        <f t="array" ref="O88">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A52)),1),"-")</f>
-        <v>Minidicionário Inglês</v>
+        <f t="array" ref="O88">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A53)),1),"-")</f>
+        <v>Formação para Leituras Comentaristas</v>
       </c>
       <c r="P88" s="47"/>
       <c r="Q88" s="47"/>
@@ -20720,7 +20696,7 @@
       <c r="T88" s="47"/>
       <c r="U88" s="58"/>
       <c r="V88" s="54" t="str" cm="1">
-        <f t="array" ref="V88">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A72)),1)," -")</f>
+        <f t="array" ref="V88">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A73)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="W88" s="54"/>
@@ -20741,9 +20717,9 @@
       <c r="E89" s="45"/>
       <c r="F89" s="45"/>
       <c r="G89" s="46"/>
-      <c r="H89" s="48" t="str" cm="1">
-        <f t="array" ref="H89">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A33)),1),"-")</f>
-        <v>Modernização, Ditadura e Democracia</v>
+      <c r="H89" s="47" t="str" cm="1">
+        <f t="array" ref="H89">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A34)),1),"-")</f>
+        <v>República Alvorada</v>
       </c>
       <c r="I89" s="47"/>
       <c r="J89" s="47"/>
@@ -20752,8 +20728,8 @@
       <c r="M89" s="47"/>
       <c r="N89" s="47"/>
       <c r="O89" s="48" t="str" cm="1">
-        <f t="array" ref="O89">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A53)),1),"-")</f>
-        <v>Formação para Leituras Comentaristas</v>
+        <f t="array" ref="O89">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A54)),1),"-")</f>
+        <v>Das Causas Primárias</v>
       </c>
       <c r="P89" s="47"/>
       <c r="Q89" s="47"/>
@@ -20762,7 +20738,7 @@
       <c r="T89" s="47"/>
       <c r="U89" s="58"/>
       <c r="V89" s="54" t="str" cm="1">
-        <f t="array" ref="V89">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A73)),1)," -")</f>
+        <f t="array" ref="V89">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A74)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="W89" s="54"/>
@@ -20783,9 +20759,9 @@
       <c r="E90" s="45"/>
       <c r="F90" s="45"/>
       <c r="G90" s="46"/>
-      <c r="H90" s="48" t="str" cm="1">
-        <f t="array" ref="H90">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A34)),1),"-")</f>
-        <v>República Alvorada</v>
+      <c r="H90" s="47" t="str" cm="1">
+        <f t="array" ref="H90">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A35)),1),"-")</f>
+        <v>Programa Escolar de Pesquisa I</v>
       </c>
       <c r="I90" s="47"/>
       <c r="J90" s="47"/>
@@ -20794,8 +20770,8 @@
       <c r="M90" s="47"/>
       <c r="N90" s="47"/>
       <c r="O90" s="48" t="str" cm="1">
-        <f t="array" ref="O90">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A54)),1),"-")</f>
-        <v>Das Causas Primárias</v>
+        <f t="array" ref="O90">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A55)),1),"-")</f>
+        <v>O Poder da Esperança</v>
       </c>
       <c r="P90" s="47"/>
       <c r="Q90" s="47"/>
@@ -20804,7 +20780,7 @@
       <c r="T90" s="47"/>
       <c r="U90" s="58"/>
       <c r="V90" s="54" t="str" cm="1">
-        <f t="array" ref="V90">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A74)),1)," -")</f>
+        <f t="array" ref="V90">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A75)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="W90" s="54"/>
@@ -20825,9 +20801,9 @@
       <c r="E91" s="45"/>
       <c r="F91" s="45"/>
       <c r="G91" s="46"/>
-      <c r="H91" s="48" t="str" cm="1">
-        <f t="array" ref="H91">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A35)),1),"-")</f>
-        <v>Programa Escolar de Pesquisa I</v>
+      <c r="H91" s="47" t="str" cm="1">
+        <f t="array" ref="H91">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A36)),1),"-")</f>
+        <v>Programa Escolar de Pesquisa II</v>
       </c>
       <c r="I91" s="47"/>
       <c r="J91" s="47"/>
@@ -20836,8 +20812,8 @@
       <c r="M91" s="47"/>
       <c r="N91" s="47"/>
       <c r="O91" s="48" t="str" cm="1">
-        <f t="array" ref="O91">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A55)),1),"-")</f>
-        <v>O Poder da Esperança</v>
+        <f t="array" ref="O91">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A56)),1),"-")</f>
+        <v>O Tear do Destino</v>
       </c>
       <c r="P91" s="47"/>
       <c r="Q91" s="47"/>
@@ -20846,7 +20822,7 @@
       <c r="T91" s="47"/>
       <c r="U91" s="58"/>
       <c r="V91" s="54" t="str" cm="1">
-        <f t="array" ref="V91">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A75)),1)," -")</f>
+        <f t="array" ref="V91">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A76)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="W91" s="54"/>
@@ -20867,9 +20843,9 @@
       <c r="E92" s="45"/>
       <c r="F92" s="45"/>
       <c r="G92" s="46"/>
-      <c r="H92" s="48" t="str" cm="1">
-        <f t="array" ref="H92">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A36)),1),"-")</f>
-        <v>Programa Escolar de Pesquisa II</v>
+      <c r="H92" s="47" t="str" cm="1">
+        <f t="array" ref="H92">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A37)),1),"-")</f>
+        <v>Programa Escolar de Pesquisa III</v>
       </c>
       <c r="I92" s="47"/>
       <c r="J92" s="47"/>
@@ -20878,8 +20854,8 @@
       <c r="M92" s="47"/>
       <c r="N92" s="47"/>
       <c r="O92" s="48" t="str" cm="1">
-        <f t="array" ref="O92">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A56)),1),"-")</f>
-        <v>O Tear do Destino</v>
+        <f t="array" ref="O92">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A57)),1),"-")</f>
+        <v>Imaginário, história oral &amp; transcendentalismo</v>
       </c>
       <c r="P92" s="47"/>
       <c r="Q92" s="47"/>
@@ -20888,7 +20864,7 @@
       <c r="T92" s="47"/>
       <c r="U92" s="58"/>
       <c r="V92" s="54" t="str" cm="1">
-        <f t="array" ref="V92">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A76)),1)," -")</f>
+        <f t="array" ref="V92">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A77)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="W92" s="54"/>
@@ -20909,9 +20885,9 @@
       <c r="E93" s="45"/>
       <c r="F93" s="45"/>
       <c r="G93" s="46"/>
-      <c r="H93" s="48" t="str" cm="1">
-        <f t="array" ref="H93">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A37)),1),"-")</f>
-        <v>Programa Escolar de Pesquisa III</v>
+      <c r="H93" s="47" t="str" cm="1">
+        <f t="array" ref="H93">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A38)),1),"-")</f>
+        <v>Programa Escolar de Pesquisa IV</v>
       </c>
       <c r="I93" s="47"/>
       <c r="J93" s="47"/>
@@ -20920,8 +20896,8 @@
       <c r="M93" s="47"/>
       <c r="N93" s="47"/>
       <c r="O93" s="48" t="str" cm="1">
-        <f t="array" ref="O93">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A57)),1),"-")</f>
-        <v>Imaginário, história oral &amp; transcendentalismo</v>
+        <f t="array" ref="O93">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A58)),1),"-")</f>
+        <v>O Ministérios de Leitores e Salmistas</v>
       </c>
       <c r="P93" s="47"/>
       <c r="Q93" s="47"/>
@@ -20930,7 +20906,7 @@
       <c r="T93" s="47"/>
       <c r="U93" s="58"/>
       <c r="V93" s="54" t="str" cm="1">
-        <f t="array" ref="V93">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A77)),1)," -")</f>
+        <f t="array" ref="V93">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A78)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="W93" s="54"/>
@@ -20951,9 +20927,9 @@
       <c r="E94" s="45"/>
       <c r="F94" s="45"/>
       <c r="G94" s="46"/>
-      <c r="H94" s="48" t="str" cm="1">
-        <f t="array" ref="H94">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A38)),1),"-")</f>
-        <v>Programa Escolar de Pesquisa IV</v>
+      <c r="H94" s="47" t="str" cm="1">
+        <f t="array" ref="H94">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A39)),1),"-")</f>
+        <v>Atlas Geográfico Escolar</v>
       </c>
       <c r="I94" s="47"/>
       <c r="J94" s="47"/>
@@ -20962,8 +20938,8 @@
       <c r="M94" s="47"/>
       <c r="N94" s="47"/>
       <c r="O94" s="48" t="str" cm="1">
-        <f t="array" ref="O94">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A58)),1),"-")</f>
-        <v>O Ministérios de Leitores e Salmistas</v>
+        <f t="array" ref="O94">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A59)),1),"-")</f>
+        <v>Leituras e escritas do outro e de si na construção de identidades</v>
       </c>
       <c r="P94" s="47"/>
       <c r="Q94" s="47"/>
@@ -20972,7 +20948,7 @@
       <c r="T94" s="47"/>
       <c r="U94" s="58"/>
       <c r="V94" s="54" t="str" cm="1">
-        <f t="array" ref="V94">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A78)),1)," -")</f>
+        <f t="array" ref="V94">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A79)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="W94" s="54"/>
@@ -20993,9 +20969,9 @@
       <c r="E95" s="45"/>
       <c r="F95" s="45"/>
       <c r="G95" s="46"/>
-      <c r="H95" s="56" t="str" cm="1">
-        <f t="array" ref="H95">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A39)),1),"-")</f>
-        <v>Atlas Geográfico Escolar</v>
+      <c r="H95" s="57" t="str" cm="1">
+        <f t="array" ref="H95">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A40)),1),"-")</f>
+        <v>Biologia (Ensino Médio)</v>
       </c>
       <c r="I95" s="57"/>
       <c r="J95" s="57"/>
@@ -21003,18 +20979,18 @@
       <c r="L95" s="57"/>
       <c r="M95" s="57"/>
       <c r="N95" s="57"/>
-      <c r="O95" s="62" t="str" cm="1">
-        <f t="array" ref="O95">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A59)),1),"-")</f>
-        <v>Leituras e escritas do outro e de si na construção de identidades</v>
-      </c>
-      <c r="P95" s="63"/>
-      <c r="Q95" s="63"/>
-      <c r="R95" s="63"/>
-      <c r="S95" s="63"/>
-      <c r="T95" s="63"/>
-      <c r="U95" s="64"/>
+      <c r="O95" s="56" t="str" cm="1">
+        <f t="array" ref="O95">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$M$3:$M$184=$B$73,ROW('Base de Dados'!$M$3:$M$184)-2),ROW(A60)),1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="P95" s="57"/>
+      <c r="Q95" s="57"/>
+      <c r="R95" s="57"/>
+      <c r="S95" s="57"/>
+      <c r="T95" s="57"/>
+      <c r="U95" s="139"/>
       <c r="V95" s="54" t="str" cm="1">
-        <f t="array" ref="V95">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A79)),1)," -")</f>
+        <f t="array" ref="V95">IFERROR(INDEX('Base de Dados'!$A$3:$C$184,SMALL(IF('Base de Dados'!$C$3:$C$184=$B$48,ROW('Base de Dados'!$C$3:$C$184)-2),ROW(A80)),1)," -")</f>
         <v xml:space="preserve"> -</v>
       </c>
       <c r="W95" s="54"/>
@@ -21034,36 +21010,36 @@
       <c r="U96" s="18"/>
     </row>
     <row r="97" spans="1:28" ht="18.75" customHeight="1">
-      <c r="A97" s="73" t="s">
+      <c r="A97" s="63" t="s">
         <v>740</v>
       </c>
-      <c r="B97" s="74"/>
-      <c r="C97" s="74"/>
-      <c r="D97" s="74"/>
-      <c r="E97" s="74"/>
-      <c r="F97" s="74"/>
-      <c r="G97" s="74"/>
-      <c r="H97" s="74"/>
-      <c r="I97" s="74"/>
-      <c r="J97" s="74"/>
-      <c r="K97" s="74"/>
-      <c r="L97" s="74"/>
-      <c r="M97" s="74"/>
-      <c r="N97" s="74"/>
-      <c r="O97" s="74"/>
-      <c r="P97" s="74"/>
-      <c r="Q97" s="74"/>
-      <c r="R97" s="74"/>
-      <c r="S97" s="74"/>
-      <c r="T97" s="74"/>
-      <c r="U97" s="74"/>
-      <c r="V97" s="74"/>
-      <c r="W97" s="74"/>
-      <c r="X97" s="74"/>
-      <c r="Y97" s="74"/>
-      <c r="Z97" s="74"/>
-      <c r="AA97" s="74"/>
-      <c r="AB97" s="74"/>
+      <c r="B97" s="64"/>
+      <c r="C97" s="64"/>
+      <c r="D97" s="64"/>
+      <c r="E97" s="64"/>
+      <c r="F97" s="64"/>
+      <c r="G97" s="64"/>
+      <c r="H97" s="64"/>
+      <c r="I97" s="64"/>
+      <c r="J97" s="64"/>
+      <c r="K97" s="64"/>
+      <c r="L97" s="64"/>
+      <c r="M97" s="64"/>
+      <c r="N97" s="64"/>
+      <c r="O97" s="64"/>
+      <c r="P97" s="64"/>
+      <c r="Q97" s="64"/>
+      <c r="R97" s="64"/>
+      <c r="S97" s="64"/>
+      <c r="T97" s="64"/>
+      <c r="U97" s="64"/>
+      <c r="V97" s="64"/>
+      <c r="W97" s="64"/>
+      <c r="X97" s="64"/>
+      <c r="Y97" s="64"/>
+      <c r="Z97" s="64"/>
+      <c r="AA97" s="64"/>
+      <c r="AB97" s="64"/>
     </row>
     <row r="98" spans="1:28" ht="21">
       <c r="A98" s="27" t="s">
@@ -21103,36 +21079,36 @@
       <c r="O99" s="15"/>
     </row>
     <row r="100" spans="1:28">
-      <c r="A100" s="71" t="s">
+      <c r="A100" s="61" t="s">
         <v>733</v>
       </c>
-      <c r="B100" s="72"/>
-      <c r="C100" s="72"/>
-      <c r="D100" s="72"/>
-      <c r="E100" s="72"/>
-      <c r="F100" s="72"/>
-      <c r="G100" s="72"/>
-      <c r="H100" s="72"/>
-      <c r="I100" s="72"/>
-      <c r="J100" s="72"/>
-      <c r="K100" s="72"/>
-      <c r="L100" s="72"/>
-      <c r="M100" s="72"/>
-      <c r="N100" s="72"/>
-      <c r="O100" s="72"/>
-      <c r="P100" s="72"/>
-      <c r="Q100" s="72"/>
-      <c r="R100" s="72"/>
-      <c r="S100" s="72"/>
-      <c r="T100" s="72"/>
-      <c r="U100" s="72"/>
-      <c r="V100" s="72"/>
-      <c r="W100" s="72"/>
-      <c r="X100" s="72"/>
-      <c r="Y100" s="72"/>
-      <c r="Z100" s="72"/>
-      <c r="AA100" s="72"/>
-      <c r="AB100" s="72"/>
+      <c r="B100" s="62"/>
+      <c r="C100" s="62"/>
+      <c r="D100" s="62"/>
+      <c r="E100" s="62"/>
+      <c r="F100" s="62"/>
+      <c r="G100" s="62"/>
+      <c r="H100" s="62"/>
+      <c r="I100" s="62"/>
+      <c r="J100" s="62"/>
+      <c r="K100" s="62"/>
+      <c r="L100" s="62"/>
+      <c r="M100" s="62"/>
+      <c r="N100" s="62"/>
+      <c r="O100" s="62"/>
+      <c r="P100" s="62"/>
+      <c r="Q100" s="62"/>
+      <c r="R100" s="62"/>
+      <c r="S100" s="62"/>
+      <c r="T100" s="62"/>
+      <c r="U100" s="62"/>
+      <c r="V100" s="62"/>
+      <c r="W100" s="62"/>
+      <c r="X100" s="62"/>
+      <c r="Y100" s="62"/>
+      <c r="Z100" s="62"/>
+      <c r="AA100" s="62"/>
+      <c r="AB100" s="62"/>
     </row>
     <row r="101" spans="1:28">
       <c r="A101" s="45" t="str" cm="1">
@@ -21145,18 +21121,18 @@
       <c r="E101" s="45"/>
       <c r="F101" s="45"/>
       <c r="G101" s="46"/>
-      <c r="H101" s="65" t="str" cm="1">
-        <f t="array" ref="H101">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A20)),1),"-")</f>
+      <c r="H101" s="140" t="str" cm="1">
+        <f t="array" ref="H101">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A21)),1),"-")</f>
         <v>-</v>
       </c>
-      <c r="I101" s="66"/>
-      <c r="J101" s="66"/>
-      <c r="K101" s="66"/>
-      <c r="L101" s="66"/>
-      <c r="M101" s="66"/>
-      <c r="N101" s="67"/>
+      <c r="I101" s="45"/>
+      <c r="J101" s="45"/>
+      <c r="K101" s="45"/>
+      <c r="L101" s="45"/>
+      <c r="M101" s="45"/>
+      <c r="N101" s="46"/>
       <c r="O101" s="45" t="str" cm="1">
-        <f t="array" ref="O101">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A40)),1),"-")</f>
+        <f t="array" ref="O101">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A41)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="P101" s="45"/>
@@ -21165,16 +21141,16 @@
       <c r="S101" s="45"/>
       <c r="T101" s="45"/>
       <c r="U101" s="46"/>
-      <c r="V101" s="69" t="str" cm="1">
-        <f t="array" ref="V101">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A40)),1),"-")</f>
+      <c r="V101" s="59" t="str" cm="1">
+        <f t="array" ref="V101">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A61)),1),"-")</f>
         <v>-</v>
       </c>
-      <c r="W101" s="69"/>
-      <c r="X101" s="69"/>
-      <c r="Y101" s="69"/>
-      <c r="Z101" s="69"/>
-      <c r="AA101" s="69"/>
-      <c r="AB101" s="70"/>
+      <c r="W101" s="59"/>
+      <c r="X101" s="59"/>
+      <c r="Y101" s="59"/>
+      <c r="Z101" s="59"/>
+      <c r="AA101" s="59"/>
+      <c r="AB101" s="60"/>
     </row>
     <row r="102" spans="1:28">
       <c r="A102" s="45" t="str" cm="1">
@@ -21187,18 +21163,18 @@
       <c r="E102" s="45"/>
       <c r="F102" s="45"/>
       <c r="G102" s="46"/>
-      <c r="H102" s="59" t="str" cm="1">
-        <f t="array" ref="H102">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A21)),1),"-")</f>
+      <c r="H102" s="140" t="str" cm="1">
+        <f t="array" ref="H102">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A22)),1),"-")</f>
         <v>-</v>
       </c>
-      <c r="I102" s="60"/>
-      <c r="J102" s="60"/>
-      <c r="K102" s="60"/>
-      <c r="L102" s="60"/>
-      <c r="M102" s="60"/>
-      <c r="N102" s="61"/>
+      <c r="I102" s="45"/>
+      <c r="J102" s="45"/>
+      <c r="K102" s="45"/>
+      <c r="L102" s="45"/>
+      <c r="M102" s="45"/>
+      <c r="N102" s="46"/>
       <c r="O102" s="45" t="str" cm="1">
-        <f t="array" ref="O102">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A41)),1),"-")</f>
+        <f t="array" ref="O102">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A42)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="P102" s="45"/>
@@ -21207,16 +21183,16 @@
       <c r="S102" s="45"/>
       <c r="T102" s="45"/>
       <c r="U102" s="46"/>
-      <c r="V102" s="69" t="str" cm="1">
-        <f t="array" ref="V102">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A41)),1),"-")</f>
+      <c r="V102" s="59" t="str" cm="1">
+        <f t="array" ref="V102">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A62)),1),"-")</f>
         <v>-</v>
       </c>
-      <c r="W102" s="69"/>
-      <c r="X102" s="69"/>
-      <c r="Y102" s="69"/>
-      <c r="Z102" s="69"/>
-      <c r="AA102" s="69"/>
-      <c r="AB102" s="70"/>
+      <c r="W102" s="59"/>
+      <c r="X102" s="59"/>
+      <c r="Y102" s="59"/>
+      <c r="Z102" s="59"/>
+      <c r="AA102" s="59"/>
+      <c r="AB102" s="60"/>
     </row>
     <row r="103" spans="1:28">
       <c r="A103" s="45" t="str" cm="1">
@@ -21229,18 +21205,18 @@
       <c r="E103" s="45"/>
       <c r="F103" s="45"/>
       <c r="G103" s="46"/>
-      <c r="H103" s="59" t="str" cm="1">
-        <f t="array" ref="H103">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A22)),1),"-")</f>
+      <c r="H103" s="140" t="str" cm="1">
+        <f t="array" ref="H103">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A23)),1),"-")</f>
         <v>-</v>
       </c>
-      <c r="I103" s="60"/>
-      <c r="J103" s="60"/>
-      <c r="K103" s="60"/>
-      <c r="L103" s="60"/>
-      <c r="M103" s="60"/>
-      <c r="N103" s="61"/>
+      <c r="I103" s="45"/>
+      <c r="J103" s="45"/>
+      <c r="K103" s="45"/>
+      <c r="L103" s="45"/>
+      <c r="M103" s="45"/>
+      <c r="N103" s="46"/>
       <c r="O103" s="45" t="str" cm="1">
-        <f t="array" ref="O103">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A42)),1),"-")</f>
+        <f t="array" ref="O103">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A43)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="P103" s="45"/>
@@ -21249,16 +21225,16 @@
       <c r="S103" s="45"/>
       <c r="T103" s="45"/>
       <c r="U103" s="46"/>
-      <c r="V103" s="69" t="str" cm="1">
-        <f t="array" ref="V103">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A42)),1),"-")</f>
+      <c r="V103" s="59" t="str" cm="1">
+        <f t="array" ref="V103">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A63)),1),"-")</f>
         <v>-</v>
       </c>
-      <c r="W103" s="69"/>
-      <c r="X103" s="69"/>
-      <c r="Y103" s="69"/>
-      <c r="Z103" s="69"/>
-      <c r="AA103" s="69"/>
-      <c r="AB103" s="70"/>
+      <c r="W103" s="59"/>
+      <c r="X103" s="59"/>
+      <c r="Y103" s="59"/>
+      <c r="Z103" s="59"/>
+      <c r="AA103" s="59"/>
+      <c r="AB103" s="60"/>
     </row>
     <row r="104" spans="1:28">
       <c r="A104" s="45" t="str" cm="1">
@@ -21271,18 +21247,18 @@
       <c r="E104" s="45"/>
       <c r="F104" s="45"/>
       <c r="G104" s="46"/>
-      <c r="H104" s="59" t="str" cm="1">
-        <f t="array" ref="H104">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A23)),1),"-")</f>
+      <c r="H104" s="140" t="str" cm="1">
+        <f t="array" ref="H104">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A24)),1),"-")</f>
         <v>-</v>
       </c>
-      <c r="I104" s="60"/>
-      <c r="J104" s="60"/>
-      <c r="K104" s="60"/>
-      <c r="L104" s="60"/>
-      <c r="M104" s="60"/>
-      <c r="N104" s="61"/>
+      <c r="I104" s="45"/>
+      <c r="J104" s="45"/>
+      <c r="K104" s="45"/>
+      <c r="L104" s="45"/>
+      <c r="M104" s="45"/>
+      <c r="N104" s="46"/>
       <c r="O104" s="45" t="str" cm="1">
-        <f t="array" ref="O104">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A43)),1),"-")</f>
+        <f t="array" ref="O104">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A44)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="P104" s="45"/>
@@ -21291,16 +21267,16 @@
       <c r="S104" s="45"/>
       <c r="T104" s="45"/>
       <c r="U104" s="46"/>
-      <c r="V104" s="69" t="str" cm="1">
-        <f t="array" ref="V104">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A43)),1),"-")</f>
+      <c r="V104" s="59" t="str" cm="1">
+        <f t="array" ref="V104">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A64)),1),"-")</f>
         <v>-</v>
       </c>
-      <c r="W104" s="69"/>
-      <c r="X104" s="69"/>
-      <c r="Y104" s="69"/>
-      <c r="Z104" s="69"/>
-      <c r="AA104" s="69"/>
-      <c r="AB104" s="70"/>
+      <c r="W104" s="59"/>
+      <c r="X104" s="59"/>
+      <c r="Y104" s="59"/>
+      <c r="Z104" s="59"/>
+      <c r="AA104" s="59"/>
+      <c r="AB104" s="60"/>
     </row>
     <row r="105" spans="1:28">
       <c r="A105" s="45" t="str" cm="1">
@@ -21313,18 +21289,18 @@
       <c r="E105" s="45"/>
       <c r="F105" s="45"/>
       <c r="G105" s="46"/>
-      <c r="H105" s="59" t="str" cm="1">
-        <f t="array" ref="H105">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A24)),1),"-")</f>
+      <c r="H105" s="140" t="str" cm="1">
+        <f t="array" ref="H105">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A25)),1),"-")</f>
         <v>-</v>
       </c>
-      <c r="I105" s="60"/>
-      <c r="J105" s="60"/>
-      <c r="K105" s="60"/>
-      <c r="L105" s="60"/>
-      <c r="M105" s="60"/>
-      <c r="N105" s="61"/>
+      <c r="I105" s="45"/>
+      <c r="J105" s="45"/>
+      <c r="K105" s="45"/>
+      <c r="L105" s="45"/>
+      <c r="M105" s="45"/>
+      <c r="N105" s="46"/>
       <c r="O105" s="45" t="str" cm="1">
-        <f t="array" ref="O105">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A44)),1),"-")</f>
+        <f t="array" ref="O105">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A45)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="P105" s="45"/>
@@ -21333,16 +21309,16 @@
       <c r="S105" s="45"/>
       <c r="T105" s="45"/>
       <c r="U105" s="46"/>
-      <c r="V105" s="69" t="str" cm="1">
-        <f t="array" ref="V105">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A44)),1),"-")</f>
+      <c r="V105" s="59" t="str" cm="1">
+        <f t="array" ref="V105">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A65)),1),"-")</f>
         <v>-</v>
       </c>
-      <c r="W105" s="69"/>
-      <c r="X105" s="69"/>
-      <c r="Y105" s="69"/>
-      <c r="Z105" s="69"/>
-      <c r="AA105" s="69"/>
-      <c r="AB105" s="70"/>
+      <c r="W105" s="59"/>
+      <c r="X105" s="59"/>
+      <c r="Y105" s="59"/>
+      <c r="Z105" s="59"/>
+      <c r="AA105" s="59"/>
+      <c r="AB105" s="60"/>
     </row>
     <row r="106" spans="1:28">
       <c r="A106" s="45" t="str" cm="1">
@@ -21355,18 +21331,18 @@
       <c r="E106" s="45"/>
       <c r="F106" s="45"/>
       <c r="G106" s="46"/>
-      <c r="H106" s="59" t="str" cm="1">
-        <f t="array" ref="H106">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A25)),1),"-")</f>
+      <c r="H106" s="140" t="str" cm="1">
+        <f t="array" ref="H106">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A26)),1),"-")</f>
         <v>-</v>
       </c>
-      <c r="I106" s="60"/>
-      <c r="J106" s="60"/>
-      <c r="K106" s="60"/>
-      <c r="L106" s="60"/>
-      <c r="M106" s="60"/>
-      <c r="N106" s="61"/>
+      <c r="I106" s="45"/>
+      <c r="J106" s="45"/>
+      <c r="K106" s="45"/>
+      <c r="L106" s="45"/>
+      <c r="M106" s="45"/>
+      <c r="N106" s="46"/>
       <c r="O106" s="45" t="str" cm="1">
-        <f t="array" ref="O106">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A45)),1),"-")</f>
+        <f t="array" ref="O106">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A46)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="P106" s="45"/>
@@ -21375,16 +21351,16 @@
       <c r="S106" s="45"/>
       <c r="T106" s="45"/>
       <c r="U106" s="46"/>
-      <c r="V106" s="69" t="str" cm="1">
-        <f t="array" ref="V106">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A45)),1),"-")</f>
+      <c r="V106" s="59" t="str" cm="1">
+        <f t="array" ref="V106">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A66)),1),"-")</f>
         <v>-</v>
       </c>
-      <c r="W106" s="69"/>
-      <c r="X106" s="69"/>
-      <c r="Y106" s="69"/>
-      <c r="Z106" s="69"/>
-      <c r="AA106" s="69"/>
-      <c r="AB106" s="70"/>
+      <c r="W106" s="59"/>
+      <c r="X106" s="59"/>
+      <c r="Y106" s="59"/>
+      <c r="Z106" s="59"/>
+      <c r="AA106" s="59"/>
+      <c r="AB106" s="60"/>
     </row>
     <row r="107" spans="1:28">
       <c r="A107" s="45" t="str" cm="1">
@@ -21397,18 +21373,18 @@
       <c r="E107" s="45"/>
       <c r="F107" s="45"/>
       <c r="G107" s="46"/>
-      <c r="H107" s="59" t="str" cm="1">
-        <f t="array" ref="H107">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A26)),1),"-")</f>
+      <c r="H107" s="140" t="str" cm="1">
+        <f t="array" ref="H107">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A27)),1),"-")</f>
         <v>-</v>
       </c>
-      <c r="I107" s="60"/>
-      <c r="J107" s="60"/>
-      <c r="K107" s="60"/>
-      <c r="L107" s="60"/>
-      <c r="M107" s="60"/>
-      <c r="N107" s="61"/>
+      <c r="I107" s="45"/>
+      <c r="J107" s="45"/>
+      <c r="K107" s="45"/>
+      <c r="L107" s="45"/>
+      <c r="M107" s="45"/>
+      <c r="N107" s="46"/>
       <c r="O107" s="45" t="str" cm="1">
-        <f t="array" ref="O107">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A46)),1),"-")</f>
+        <f t="array" ref="O107">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A47)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="P107" s="45"/>
@@ -21417,16 +21393,16 @@
       <c r="S107" s="45"/>
       <c r="T107" s="45"/>
       <c r="U107" s="46"/>
-      <c r="V107" s="69" t="str" cm="1">
-        <f t="array" ref="V107">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A46)),1),"-")</f>
+      <c r="V107" s="59" t="str" cm="1">
+        <f t="array" ref="V107">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A67)),1),"-")</f>
         <v>-</v>
       </c>
-      <c r="W107" s="69"/>
-      <c r="X107" s="69"/>
-      <c r="Y107" s="69"/>
-      <c r="Z107" s="69"/>
-      <c r="AA107" s="69"/>
-      <c r="AB107" s="70"/>
+      <c r="W107" s="59"/>
+      <c r="X107" s="59"/>
+      <c r="Y107" s="59"/>
+      <c r="Z107" s="59"/>
+      <c r="AA107" s="59"/>
+      <c r="AB107" s="60"/>
     </row>
     <row r="108" spans="1:28">
       <c r="A108" s="45" t="str" cm="1">
@@ -21439,18 +21415,18 @@
       <c r="E108" s="45"/>
       <c r="F108" s="45"/>
       <c r="G108" s="46"/>
-      <c r="H108" s="59" t="str" cm="1">
-        <f t="array" ref="H108">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A27)),1),"-")</f>
+      <c r="H108" s="140" t="str" cm="1">
+        <f t="array" ref="H108">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A28)),1),"-")</f>
         <v>-</v>
       </c>
-      <c r="I108" s="60"/>
-      <c r="J108" s="60"/>
-      <c r="K108" s="60"/>
-      <c r="L108" s="60"/>
-      <c r="M108" s="60"/>
-      <c r="N108" s="61"/>
+      <c r="I108" s="45"/>
+      <c r="J108" s="45"/>
+      <c r="K108" s="45"/>
+      <c r="L108" s="45"/>
+      <c r="M108" s="45"/>
+      <c r="N108" s="46"/>
       <c r="O108" s="45" t="str" cm="1">
-        <f t="array" ref="O108">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A47)),1),"-")</f>
+        <f t="array" ref="O108">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A48)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="P108" s="45"/>
@@ -21459,16 +21435,16 @@
       <c r="S108" s="45"/>
       <c r="T108" s="45"/>
       <c r="U108" s="46"/>
-      <c r="V108" s="69" t="str" cm="1">
-        <f t="array" ref="V108">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A47)),1),"-")</f>
+      <c r="V108" s="59" t="str" cm="1">
+        <f t="array" ref="V108">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A68)),1),"-")</f>
         <v>-</v>
       </c>
-      <c r="W108" s="69"/>
-      <c r="X108" s="69"/>
-      <c r="Y108" s="69"/>
-      <c r="Z108" s="69"/>
-      <c r="AA108" s="69"/>
-      <c r="AB108" s="70"/>
+      <c r="W108" s="59"/>
+      <c r="X108" s="59"/>
+      <c r="Y108" s="59"/>
+      <c r="Z108" s="59"/>
+      <c r="AA108" s="59"/>
+      <c r="AB108" s="60"/>
     </row>
     <row r="109" spans="1:28">
       <c r="A109" s="45" t="str" cm="1">
@@ -21481,18 +21457,18 @@
       <c r="E109" s="45"/>
       <c r="F109" s="45"/>
       <c r="G109" s="46"/>
-      <c r="H109" s="59" t="str" cm="1">
-        <f t="array" ref="H109">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A28)),1),"-")</f>
+      <c r="H109" s="140" t="str" cm="1">
+        <f t="array" ref="H109">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A29)),1),"-")</f>
         <v>-</v>
       </c>
-      <c r="I109" s="60"/>
-      <c r="J109" s="60"/>
-      <c r="K109" s="60"/>
-      <c r="L109" s="60"/>
-      <c r="M109" s="60"/>
-      <c r="N109" s="61"/>
+      <c r="I109" s="45"/>
+      <c r="J109" s="45"/>
+      <c r="K109" s="45"/>
+      <c r="L109" s="45"/>
+      <c r="M109" s="45"/>
+      <c r="N109" s="46"/>
       <c r="O109" s="45" t="str" cm="1">
-        <f t="array" ref="O109">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A48)),1),"-")</f>
+        <f t="array" ref="O109">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A49)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="P109" s="45"/>
@@ -21501,16 +21477,16 @@
       <c r="S109" s="45"/>
       <c r="T109" s="45"/>
       <c r="U109" s="46"/>
-      <c r="V109" s="69" t="str" cm="1">
-        <f t="array" ref="V109">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A48)),1),"-")</f>
+      <c r="V109" s="59" t="str" cm="1">
+        <f t="array" ref="V109">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A69)),1),"-")</f>
         <v>-</v>
       </c>
-      <c r="W109" s="69"/>
-      <c r="X109" s="69"/>
-      <c r="Y109" s="69"/>
-      <c r="Z109" s="69"/>
-      <c r="AA109" s="69"/>
-      <c r="AB109" s="70"/>
+      <c r="W109" s="59"/>
+      <c r="X109" s="59"/>
+      <c r="Y109" s="59"/>
+      <c r="Z109" s="59"/>
+      <c r="AA109" s="59"/>
+      <c r="AB109" s="60"/>
     </row>
     <row r="110" spans="1:28">
       <c r="A110" s="45" t="str" cm="1">
@@ -21523,18 +21499,18 @@
       <c r="E110" s="45"/>
       <c r="F110" s="45"/>
       <c r="G110" s="46"/>
-      <c r="H110" s="59" t="str" cm="1">
-        <f t="array" ref="H110">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A29)),1),"-")</f>
+      <c r="H110" s="140" t="str" cm="1">
+        <f t="array" ref="H110">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A30)),1),"-")</f>
         <v>-</v>
       </c>
-      <c r="I110" s="60"/>
-      <c r="J110" s="60"/>
-      <c r="K110" s="60"/>
-      <c r="L110" s="60"/>
-      <c r="M110" s="60"/>
-      <c r="N110" s="61"/>
+      <c r="I110" s="45"/>
+      <c r="J110" s="45"/>
+      <c r="K110" s="45"/>
+      <c r="L110" s="45"/>
+      <c r="M110" s="45"/>
+      <c r="N110" s="46"/>
       <c r="O110" s="45" t="str" cm="1">
-        <f t="array" ref="O110">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A49)),1),"-")</f>
+        <f t="array" ref="O110">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A50)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="P110" s="45"/>
@@ -21543,16 +21519,16 @@
       <c r="S110" s="45"/>
       <c r="T110" s="45"/>
       <c r="U110" s="46"/>
-      <c r="V110" s="69" t="str" cm="1">
-        <f t="array" ref="V110">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A49)),1),"-")</f>
+      <c r="V110" s="59" t="str" cm="1">
+        <f t="array" ref="V110">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A70)),1),"-")</f>
         <v>-</v>
       </c>
-      <c r="W110" s="69"/>
-      <c r="X110" s="69"/>
-      <c r="Y110" s="69"/>
-      <c r="Z110" s="69"/>
-      <c r="AA110" s="69"/>
-      <c r="AB110" s="70"/>
+      <c r="W110" s="59"/>
+      <c r="X110" s="59"/>
+      <c r="Y110" s="59"/>
+      <c r="Z110" s="59"/>
+      <c r="AA110" s="59"/>
+      <c r="AB110" s="60"/>
     </row>
     <row r="111" spans="1:28">
       <c r="A111" s="45" t="str" cm="1">
@@ -21565,18 +21541,18 @@
       <c r="E111" s="45"/>
       <c r="F111" s="45"/>
       <c r="G111" s="46"/>
-      <c r="H111" s="59" t="str" cm="1">
-        <f t="array" ref="H111">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A30)),1),"-")</f>
+      <c r="H111" s="140" t="str" cm="1">
+        <f t="array" ref="H111">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A31)),1),"-")</f>
         <v>-</v>
       </c>
-      <c r="I111" s="60"/>
-      <c r="J111" s="60"/>
-      <c r="K111" s="60"/>
-      <c r="L111" s="60"/>
-      <c r="M111" s="60"/>
-      <c r="N111" s="61"/>
+      <c r="I111" s="45"/>
+      <c r="J111" s="45"/>
+      <c r="K111" s="45"/>
+      <c r="L111" s="45"/>
+      <c r="M111" s="45"/>
+      <c r="N111" s="46"/>
       <c r="O111" s="45" t="str" cm="1">
-        <f t="array" ref="O111">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A50)),1),"-")</f>
+        <f t="array" ref="O111">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A51)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="P111" s="45"/>
@@ -21585,16 +21561,16 @@
       <c r="S111" s="45"/>
       <c r="T111" s="45"/>
       <c r="U111" s="46"/>
-      <c r="V111" s="69" t="str" cm="1">
-        <f t="array" ref="V111">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A50)),1),"-")</f>
+      <c r="V111" s="59" t="str" cm="1">
+        <f t="array" ref="V111">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A71)),1),"-")</f>
         <v>-</v>
       </c>
-      <c r="W111" s="69"/>
-      <c r="X111" s="69"/>
-      <c r="Y111" s="69"/>
-      <c r="Z111" s="69"/>
-      <c r="AA111" s="69"/>
-      <c r="AB111" s="70"/>
+      <c r="W111" s="59"/>
+      <c r="X111" s="59"/>
+      <c r="Y111" s="59"/>
+      <c r="Z111" s="59"/>
+      <c r="AA111" s="59"/>
+      <c r="AB111" s="60"/>
     </row>
     <row r="112" spans="1:28">
       <c r="A112" s="45" t="str" cm="1">
@@ -21607,18 +21583,18 @@
       <c r="E112" s="45"/>
       <c r="F112" s="45"/>
       <c r="G112" s="46"/>
-      <c r="H112" s="59" t="str" cm="1">
-        <f t="array" ref="H112">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A31)),1),"-")</f>
+      <c r="H112" s="140" t="str" cm="1">
+        <f t="array" ref="H112">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A32)),1),"-")</f>
         <v>-</v>
       </c>
-      <c r="I112" s="60"/>
-      <c r="J112" s="60"/>
-      <c r="K112" s="60"/>
-      <c r="L112" s="60"/>
-      <c r="M112" s="60"/>
-      <c r="N112" s="61"/>
+      <c r="I112" s="45"/>
+      <c r="J112" s="45"/>
+      <c r="K112" s="45"/>
+      <c r="L112" s="45"/>
+      <c r="M112" s="45"/>
+      <c r="N112" s="46"/>
       <c r="O112" s="45" t="str" cm="1">
-        <f t="array" ref="O112">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A51)),1),"-")</f>
+        <f t="array" ref="O112">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A52)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="P112" s="45"/>
@@ -21627,16 +21603,16 @@
       <c r="S112" s="45"/>
       <c r="T112" s="45"/>
       <c r="U112" s="46"/>
-      <c r="V112" s="69" t="str" cm="1">
-        <f t="array" ref="V112">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A51)),1),"-")</f>
+      <c r="V112" s="59" t="str" cm="1">
+        <f t="array" ref="V112">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A72)),1),"-")</f>
         <v>-</v>
       </c>
-      <c r="W112" s="69"/>
-      <c r="X112" s="69"/>
-      <c r="Y112" s="69"/>
-      <c r="Z112" s="69"/>
-      <c r="AA112" s="69"/>
-      <c r="AB112" s="70"/>
+      <c r="W112" s="59"/>
+      <c r="X112" s="59"/>
+      <c r="Y112" s="59"/>
+      <c r="Z112" s="59"/>
+      <c r="AA112" s="59"/>
+      <c r="AB112" s="60"/>
     </row>
     <row r="113" spans="1:28">
       <c r="A113" s="45" t="str" cm="1">
@@ -21649,18 +21625,18 @@
       <c r="E113" s="45"/>
       <c r="F113" s="45"/>
       <c r="G113" s="46"/>
-      <c r="H113" s="59" t="str" cm="1">
-        <f t="array" ref="H113">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A32)),1),"-")</f>
+      <c r="H113" s="140" t="str" cm="1">
+        <f t="array" ref="H113">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A33)),1),"-")</f>
         <v>-</v>
       </c>
-      <c r="I113" s="60"/>
-      <c r="J113" s="60"/>
-      <c r="K113" s="60"/>
-      <c r="L113" s="60"/>
-      <c r="M113" s="60"/>
-      <c r="N113" s="61"/>
+      <c r="I113" s="45"/>
+      <c r="J113" s="45"/>
+      <c r="K113" s="45"/>
+      <c r="L113" s="45"/>
+      <c r="M113" s="45"/>
+      <c r="N113" s="46"/>
       <c r="O113" s="45" t="str" cm="1">
-        <f t="array" ref="O113">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A52)),1),"-")</f>
+        <f t="array" ref="O113">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A53)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="P113" s="45"/>
@@ -21669,16 +21645,16 @@
       <c r="S113" s="45"/>
       <c r="T113" s="45"/>
       <c r="U113" s="46"/>
-      <c r="V113" s="69" t="str" cm="1">
-        <f t="array" ref="V113">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A52)),1),"-")</f>
+      <c r="V113" s="59" t="str" cm="1">
+        <f t="array" ref="V113">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A73)),1),"-")</f>
         <v>-</v>
       </c>
-      <c r="W113" s="69"/>
-      <c r="X113" s="69"/>
-      <c r="Y113" s="69"/>
-      <c r="Z113" s="69"/>
-      <c r="AA113" s="69"/>
-      <c r="AB113" s="70"/>
+      <c r="W113" s="59"/>
+      <c r="X113" s="59"/>
+      <c r="Y113" s="59"/>
+      <c r="Z113" s="59"/>
+      <c r="AA113" s="59"/>
+      <c r="AB113" s="60"/>
     </row>
     <row r="114" spans="1:28">
       <c r="A114" s="45" t="str" cm="1">
@@ -21691,18 +21667,18 @@
       <c r="E114" s="45"/>
       <c r="F114" s="45"/>
       <c r="G114" s="46"/>
-      <c r="H114" s="59" t="str" cm="1">
-        <f t="array" ref="H114">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A33)),1),"-")</f>
+      <c r="H114" s="140" t="str" cm="1">
+        <f t="array" ref="H114">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A34)),1),"-")</f>
         <v>-</v>
       </c>
-      <c r="I114" s="60"/>
-      <c r="J114" s="60"/>
-      <c r="K114" s="60"/>
-      <c r="L114" s="60"/>
-      <c r="M114" s="60"/>
-      <c r="N114" s="61"/>
+      <c r="I114" s="45"/>
+      <c r="J114" s="45"/>
+      <c r="K114" s="45"/>
+      <c r="L114" s="45"/>
+      <c r="M114" s="45"/>
+      <c r="N114" s="46"/>
       <c r="O114" s="45" t="str" cm="1">
-        <f t="array" ref="O114">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A53)),1),"-")</f>
+        <f t="array" ref="O114">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A54)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="P114" s="45"/>
@@ -21711,16 +21687,16 @@
       <c r="S114" s="45"/>
       <c r="T114" s="45"/>
       <c r="U114" s="46"/>
-      <c r="V114" s="69" t="str" cm="1">
-        <f t="array" ref="V114">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A53)),1),"-")</f>
+      <c r="V114" s="59" t="str" cm="1">
+        <f t="array" ref="V114">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A74)),1),"-")</f>
         <v>-</v>
       </c>
-      <c r="W114" s="69"/>
-      <c r="X114" s="69"/>
-      <c r="Y114" s="69"/>
-      <c r="Z114" s="69"/>
-      <c r="AA114" s="69"/>
-      <c r="AB114" s="70"/>
+      <c r="W114" s="59"/>
+      <c r="X114" s="59"/>
+      <c r="Y114" s="59"/>
+      <c r="Z114" s="59"/>
+      <c r="AA114" s="59"/>
+      <c r="AB114" s="60"/>
     </row>
     <row r="115" spans="1:28">
       <c r="A115" s="45" t="str" cm="1">
@@ -21733,18 +21709,18 @@
       <c r="E115" s="45"/>
       <c r="F115" s="45"/>
       <c r="G115" s="46"/>
-      <c r="H115" s="59" t="str" cm="1">
-        <f t="array" ref="H115">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A34)),1),"-")</f>
+      <c r="H115" s="140" t="str" cm="1">
+        <f t="array" ref="H115">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A35)),1),"-")</f>
         <v>-</v>
       </c>
-      <c r="I115" s="60"/>
-      <c r="J115" s="60"/>
-      <c r="K115" s="60"/>
-      <c r="L115" s="60"/>
-      <c r="M115" s="60"/>
-      <c r="N115" s="61"/>
+      <c r="I115" s="45"/>
+      <c r="J115" s="45"/>
+      <c r="K115" s="45"/>
+      <c r="L115" s="45"/>
+      <c r="M115" s="45"/>
+      <c r="N115" s="46"/>
       <c r="O115" s="45" t="str" cm="1">
-        <f t="array" ref="O115">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A54)),1),"-")</f>
+        <f t="array" ref="O115">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A55)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="P115" s="45"/>
@@ -21753,16 +21729,16 @@
       <c r="S115" s="45"/>
       <c r="T115" s="45"/>
       <c r="U115" s="46"/>
-      <c r="V115" s="69" t="str" cm="1">
-        <f t="array" ref="V115">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A54)),1),"-")</f>
+      <c r="V115" s="59" t="str" cm="1">
+        <f t="array" ref="V115">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A75)),1),"-")</f>
         <v>-</v>
       </c>
-      <c r="W115" s="69"/>
-      <c r="X115" s="69"/>
-      <c r="Y115" s="69"/>
-      <c r="Z115" s="69"/>
-      <c r="AA115" s="69"/>
-      <c r="AB115" s="70"/>
+      <c r="W115" s="59"/>
+      <c r="X115" s="59"/>
+      <c r="Y115" s="59"/>
+      <c r="Z115" s="59"/>
+      <c r="AA115" s="59"/>
+      <c r="AB115" s="60"/>
     </row>
     <row r="116" spans="1:28">
       <c r="A116" s="45" t="str" cm="1">
@@ -21775,18 +21751,18 @@
       <c r="E116" s="45"/>
       <c r="F116" s="45"/>
       <c r="G116" s="46"/>
-      <c r="H116" s="59" t="str" cm="1">
-        <f t="array" ref="H116">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A35)),1),"-")</f>
+      <c r="H116" s="140" t="str" cm="1">
+        <f t="array" ref="H116">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A36)),1),"-")</f>
         <v>-</v>
       </c>
-      <c r="I116" s="60"/>
-      <c r="J116" s="60"/>
-      <c r="K116" s="60"/>
-      <c r="L116" s="60"/>
-      <c r="M116" s="60"/>
-      <c r="N116" s="61"/>
+      <c r="I116" s="45"/>
+      <c r="J116" s="45"/>
+      <c r="K116" s="45"/>
+      <c r="L116" s="45"/>
+      <c r="M116" s="45"/>
+      <c r="N116" s="46"/>
       <c r="O116" s="45" t="str" cm="1">
-        <f t="array" ref="O116">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A55)),1),"-")</f>
+        <f t="array" ref="O116">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A56)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="P116" s="45"/>
@@ -21795,16 +21771,16 @@
       <c r="S116" s="45"/>
       <c r="T116" s="45"/>
       <c r="U116" s="46"/>
-      <c r="V116" s="69" t="str" cm="1">
-        <f t="array" ref="V116">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A55)),1),"-")</f>
+      <c r="V116" s="59" t="str" cm="1">
+        <f t="array" ref="V116">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A76)),1),"-")</f>
         <v>-</v>
       </c>
-      <c r="W116" s="69"/>
-      <c r="X116" s="69"/>
-      <c r="Y116" s="69"/>
-      <c r="Z116" s="69"/>
-      <c r="AA116" s="69"/>
-      <c r="AB116" s="70"/>
+      <c r="W116" s="59"/>
+      <c r="X116" s="59"/>
+      <c r="Y116" s="59"/>
+      <c r="Z116" s="59"/>
+      <c r="AA116" s="59"/>
+      <c r="AB116" s="60"/>
     </row>
     <row r="117" spans="1:28">
       <c r="A117" s="45" t="str" cm="1">
@@ -21817,18 +21793,18 @@
       <c r="E117" s="45"/>
       <c r="F117" s="45"/>
       <c r="G117" s="46"/>
-      <c r="H117" s="59" t="str" cm="1">
-        <f t="array" ref="H117">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A36)),1),"-")</f>
+      <c r="H117" s="140" t="str" cm="1">
+        <f t="array" ref="H117">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A37)),1),"-")</f>
         <v>-</v>
       </c>
-      <c r="I117" s="60"/>
-      <c r="J117" s="60"/>
-      <c r="K117" s="60"/>
-      <c r="L117" s="60"/>
-      <c r="M117" s="60"/>
-      <c r="N117" s="61"/>
+      <c r="I117" s="45"/>
+      <c r="J117" s="45"/>
+      <c r="K117" s="45"/>
+      <c r="L117" s="45"/>
+      <c r="M117" s="45"/>
+      <c r="N117" s="46"/>
       <c r="O117" s="45" t="str" cm="1">
-        <f t="array" ref="O117">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A56)),1),"-")</f>
+        <f t="array" ref="O117">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A57)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="P117" s="45"/>
@@ -21837,16 +21813,16 @@
       <c r="S117" s="45"/>
       <c r="T117" s="45"/>
       <c r="U117" s="46"/>
-      <c r="V117" s="69" t="str" cm="1">
-        <f t="array" ref="V117">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A56)),1),"-")</f>
+      <c r="V117" s="59" t="str" cm="1">
+        <f t="array" ref="V117">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A77)),1),"-")</f>
         <v>-</v>
       </c>
-      <c r="W117" s="69"/>
-      <c r="X117" s="69"/>
-      <c r="Y117" s="69"/>
-      <c r="Z117" s="69"/>
-      <c r="AA117" s="69"/>
-      <c r="AB117" s="70"/>
+      <c r="W117" s="59"/>
+      <c r="X117" s="59"/>
+      <c r="Y117" s="59"/>
+      <c r="Z117" s="59"/>
+      <c r="AA117" s="59"/>
+      <c r="AB117" s="60"/>
     </row>
     <row r="118" spans="1:28">
       <c r="A118" s="45" t="str" cm="1">
@@ -21859,18 +21835,18 @@
       <c r="E118" s="45"/>
       <c r="F118" s="45"/>
       <c r="G118" s="46"/>
-      <c r="H118" s="59" t="str" cm="1">
-        <f t="array" ref="H118">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A37)),1),"-")</f>
+      <c r="H118" s="140" t="str" cm="1">
+        <f t="array" ref="H118">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A38)),1),"-")</f>
         <v>-</v>
       </c>
-      <c r="I118" s="60"/>
-      <c r="J118" s="60"/>
-      <c r="K118" s="60"/>
-      <c r="L118" s="60"/>
-      <c r="M118" s="60"/>
-      <c r="N118" s="61"/>
+      <c r="I118" s="45"/>
+      <c r="J118" s="45"/>
+      <c r="K118" s="45"/>
+      <c r="L118" s="45"/>
+      <c r="M118" s="45"/>
+      <c r="N118" s="46"/>
       <c r="O118" s="45" t="str" cm="1">
-        <f t="array" ref="O118">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A57)),1),"-")</f>
+        <f t="array" ref="O118">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A58)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="P118" s="45"/>
@@ -21879,16 +21855,16 @@
       <c r="S118" s="45"/>
       <c r="T118" s="45"/>
       <c r="U118" s="46"/>
-      <c r="V118" s="69" t="str" cm="1">
-        <f t="array" ref="V118">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A57)),1),"-")</f>
+      <c r="V118" s="59" t="str" cm="1">
+        <f t="array" ref="V118">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A78)),1),"-")</f>
         <v>-</v>
       </c>
-      <c r="W118" s="69"/>
-      <c r="X118" s="69"/>
-      <c r="Y118" s="69"/>
-      <c r="Z118" s="69"/>
-      <c r="AA118" s="69"/>
-      <c r="AB118" s="70"/>
+      <c r="W118" s="59"/>
+      <c r="X118" s="59"/>
+      <c r="Y118" s="59"/>
+      <c r="Z118" s="59"/>
+      <c r="AA118" s="59"/>
+      <c r="AB118" s="60"/>
     </row>
     <row r="119" spans="1:28">
       <c r="A119" s="45" t="str" cm="1">
@@ -21901,18 +21877,18 @@
       <c r="E119" s="45"/>
       <c r="F119" s="45"/>
       <c r="G119" s="46"/>
-      <c r="H119" s="59" t="str" cm="1">
-        <f t="array" ref="H119">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A38)),1),"-")</f>
+      <c r="H119" s="140" t="str" cm="1">
+        <f t="array" ref="H119">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A39)),1),"-")</f>
         <v>-</v>
       </c>
-      <c r="I119" s="60"/>
-      <c r="J119" s="60"/>
-      <c r="K119" s="60"/>
-      <c r="L119" s="60"/>
-      <c r="M119" s="60"/>
-      <c r="N119" s="61"/>
+      <c r="I119" s="45"/>
+      <c r="J119" s="45"/>
+      <c r="K119" s="45"/>
+      <c r="L119" s="45"/>
+      <c r="M119" s="45"/>
+      <c r="N119" s="46"/>
       <c r="O119" s="45" t="str" cm="1">
-        <f t="array" ref="O119">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A58)),1),"-")</f>
+        <f t="array" ref="O119">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A59)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="P119" s="45"/>
@@ -21921,16 +21897,16 @@
       <c r="S119" s="45"/>
       <c r="T119" s="45"/>
       <c r="U119" s="46"/>
-      <c r="V119" s="69" t="str" cm="1">
-        <f t="array" ref="V119">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A58)),1),"-")</f>
+      <c r="V119" s="59" t="str" cm="1">
+        <f t="array" ref="V119">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A79)),1),"-")</f>
         <v>-</v>
       </c>
-      <c r="W119" s="69"/>
-      <c r="X119" s="69"/>
-      <c r="Y119" s="69"/>
-      <c r="Z119" s="69"/>
-      <c r="AA119" s="69"/>
-      <c r="AB119" s="70"/>
+      <c r="W119" s="59"/>
+      <c r="X119" s="59"/>
+      <c r="Y119" s="59"/>
+      <c r="Z119" s="59"/>
+      <c r="AA119" s="59"/>
+      <c r="AB119" s="60"/>
     </row>
     <row r="120" spans="1:28">
       <c r="A120" s="45" t="str" cm="1">
@@ -21943,18 +21919,18 @@
       <c r="E120" s="45"/>
       <c r="F120" s="45"/>
       <c r="G120" s="46"/>
-      <c r="H120" s="68" t="str" cm="1">
-        <f t="array" ref="H120">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A39)),1),"-")</f>
+      <c r="H120" s="140" t="str" cm="1">
+        <f t="array" ref="H120">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A40)),1),"-")</f>
         <v>-</v>
       </c>
-      <c r="I120" s="69"/>
-      <c r="J120" s="69"/>
-      <c r="K120" s="69"/>
-      <c r="L120" s="69"/>
-      <c r="M120" s="69"/>
-      <c r="N120" s="70"/>
+      <c r="I120" s="45"/>
+      <c r="J120" s="45"/>
+      <c r="K120" s="45"/>
+      <c r="L120" s="45"/>
+      <c r="M120" s="45"/>
+      <c r="N120" s="46"/>
       <c r="O120" s="45" t="str" cm="1">
-        <f t="array" ref="O120">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A59)),1),"-")</f>
+        <f t="array" ref="O120">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A60)),1),"-")</f>
         <v>-</v>
       </c>
       <c r="P120" s="45"/>
@@ -21963,16 +21939,16 @@
       <c r="S120" s="45"/>
       <c r="T120" s="45"/>
       <c r="U120" s="46"/>
-      <c r="V120" s="69" t="str" cm="1">
-        <f t="array" ref="V120">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A59)),1),"-")</f>
+      <c r="V120" s="59" t="str" cm="1">
+        <f t="array" ref="V120">IFERROR(INDEX('Base de Dados'!$A$3:$M$184,SMALL(IF('Base de Dados'!$F$3:$F$184=$B$98,ROW('Base de Dados'!$F$3:$F$184)-2),ROW(A80)),1),"-")</f>
         <v>-</v>
       </c>
-      <c r="W120" s="69"/>
-      <c r="X120" s="69"/>
-      <c r="Y120" s="69"/>
-      <c r="Z120" s="69"/>
-      <c r="AA120" s="69"/>
-      <c r="AB120" s="70"/>
+      <c r="W120" s="59"/>
+      <c r="X120" s="59"/>
+      <c r="Y120" s="59"/>
+      <c r="Z120" s="59"/>
+      <c r="AA120" s="59"/>
+      <c r="AB120" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="383">
@@ -22461,11 +22437,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="31.5" customHeight="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="69" t="s">
         <v>723</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
       <c r="D1" s="28" t="s">
         <v>743</v>
       </c>
